--- a/fase1/Documentacion Proyecto/Carta Gantt.xlsx
+++ b/fase1/Documentacion Proyecto/Carta Gantt.xlsx
@@ -5,18 +5,29 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Projects\Capstone\fase1\Documentacion Proyecto\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\git\Capstone\fase1\Documentacion Proyecto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8417508C-5F4E-44E5-9748-87C284296386}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9321D9FF-CD17-48B1-8255-5DE509116F69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3636" yWindow="2664" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Carta Gantt" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mhXjtjCe79l2LKH9i2/alVkEItCEA=="/>
     </ext>
@@ -25,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="93">
   <si>
     <t>Nombre Proyecto:</t>
   </si>
@@ -201,19 +212,10 @@
     <t>DG</t>
   </si>
   <si>
-    <t>XX</t>
-  </si>
-  <si>
     <t>NOMBRE RECURSO</t>
   </si>
   <si>
-    <t>Modulo de xxxx</t>
-  </si>
-  <si>
     <t xml:space="preserve">Modulo de Reportes </t>
-  </si>
-  <si>
-    <t>Reportes xxxx</t>
   </si>
   <si>
     <t>Ejemplo Administrar Contratación</t>
@@ -262,6 +264,57 @@
   </si>
   <si>
     <t>X</t>
+  </si>
+  <si>
+    <t>Modulo de usuario</t>
+  </si>
+  <si>
+    <t>Administrar Usuarios</t>
+  </si>
+  <si>
+    <t>Administrar Roles y Perfiles</t>
+  </si>
+  <si>
+    <t>Administrar Reservas</t>
+  </si>
+  <si>
+    <t>Administrar Servicios</t>
+  </si>
+  <si>
+    <t>Modulo De reservas</t>
+  </si>
+  <si>
+    <t>Modulo De pagos</t>
+  </si>
+  <si>
+    <t>Registrar Pagos</t>
+  </si>
+  <si>
+    <t>Reportes  de Reservas</t>
+  </si>
+  <si>
+    <t>Reportes de Pagos</t>
+  </si>
+  <si>
+    <t>Reportes de Usuarios Activos</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>xx</t>
+  </si>
+  <si>
+    <t>Mallely Calfilaf</t>
+  </si>
+  <si>
+    <t>Cristian Pérez</t>
+  </si>
+  <si>
+    <t>Daniela Muñoz</t>
+  </si>
+  <si>
+    <t>Camila Rodríguez</t>
   </si>
 </sst>
 </file>
@@ -688,7 +741,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -759,45 +812,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -809,7 +824,10 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -848,11 +866,58 @@
     <xf numFmtId="0" fontId="0" fillId="16" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1074,34 +1139,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:EE970"/>
+  <dimension ref="A1:EE973"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="87" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" topLeftCell="B25" zoomScale="43" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="AR69" sqref="AR69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.58203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="1.19921875" customWidth="1"/>
+    <col min="1" max="1" width="1.1640625" customWidth="1"/>
     <col min="2" max="2" width="38" customWidth="1"/>
-    <col min="3" max="5" width="2.796875" customWidth="1"/>
+    <col min="3" max="5" width="2.83203125" customWidth="1"/>
     <col min="6" max="6" width="4" customWidth="1"/>
-    <col min="7" max="7" width="4.19921875" customWidth="1"/>
-    <col min="8" max="8" width="2.796875" customWidth="1"/>
+    <col min="7" max="7" width="4.1640625" customWidth="1"/>
+    <col min="8" max="8" width="2.83203125" customWidth="1"/>
     <col min="9" max="9" width="3" customWidth="1"/>
-    <col min="10" max="11" width="2.796875" customWidth="1"/>
+    <col min="10" max="11" width="2.83203125" customWidth="1"/>
     <col min="12" max="12" width="4" customWidth="1"/>
-    <col min="13" max="13" width="3.296875" customWidth="1"/>
-    <col min="14" max="26" width="2.796875" customWidth="1"/>
+    <col min="13" max="13" width="3.33203125" customWidth="1"/>
+    <col min="14" max="26" width="2.83203125" customWidth="1"/>
     <col min="27" max="29" width="3" customWidth="1"/>
-    <col min="30" max="30" width="3.09765625" customWidth="1"/>
+    <col min="30" max="30" width="3.08203125" customWidth="1"/>
     <col min="31" max="33" width="3" customWidth="1"/>
-    <col min="34" max="54" width="3.09765625" customWidth="1"/>
+    <col min="34" max="54" width="3.08203125" customWidth="1"/>
     <col min="55" max="96" width="3.5" customWidth="1"/>
     <col min="97" max="135" width="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:135" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:135" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -1134,42 +1199,42 @@
       <c r="AD1" s="3"/>
       <c r="AE1" s="4"/>
     </row>
-    <row r="2" spans="1:135" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:135" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A2" s="5"/>
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="42"/>
-      <c r="L2" s="42"/>
-      <c r="M2" s="42"/>
-      <c r="N2" s="42"/>
-      <c r="O2" s="43"/>
-      <c r="P2" s="43"/>
-      <c r="Q2" s="43"/>
-      <c r="R2" s="43"/>
-      <c r="S2" s="43"/>
-      <c r="T2" s="42"/>
-      <c r="U2" s="42"/>
-      <c r="V2" s="43"/>
-      <c r="W2" s="43"/>
-      <c r="X2" s="43"/>
-      <c r="Y2" s="43"/>
-      <c r="Z2" s="43"/>
-      <c r="AA2" s="42"/>
-      <c r="AB2" s="42"/>
-      <c r="AC2" s="42"/>
-      <c r="AD2" s="43"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="60"/>
+      <c r="M2" s="60"/>
+      <c r="N2" s="60"/>
+      <c r="O2" s="61"/>
+      <c r="P2" s="61"/>
+      <c r="Q2" s="61"/>
+      <c r="R2" s="61"/>
+      <c r="S2" s="61"/>
+      <c r="T2" s="60"/>
+      <c r="U2" s="60"/>
+      <c r="V2" s="61"/>
+      <c r="W2" s="61"/>
+      <c r="X2" s="61"/>
+      <c r="Y2" s="61"/>
+      <c r="Z2" s="61"/>
+      <c r="AA2" s="60"/>
+      <c r="AB2" s="60"/>
+      <c r="AC2" s="60"/>
+      <c r="AD2" s="61"/>
       <c r="AE2" s="4"/>
     </row>
-    <row r="3" spans="1:135" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:135" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A3" s="5"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -1203,112 +1268,112 @@
       <c r="AE3" s="4"/>
       <c r="AI3" s="7"/>
     </row>
-    <row r="4" spans="1:135" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:135" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A4" s="5"/>
       <c r="B4" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="44"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
-      <c r="I4" s="45"/>
-      <c r="J4" s="45"/>
-      <c r="K4" s="45"/>
-      <c r="L4" s="45"/>
-      <c r="M4" s="45"/>
-      <c r="N4" s="45"/>
-      <c r="O4" s="45"/>
-      <c r="P4" s="45"/>
-      <c r="Q4" s="45"/>
-      <c r="R4" s="45"/>
-      <c r="S4" s="45"/>
-      <c r="T4" s="45"/>
-      <c r="U4" s="45"/>
-      <c r="V4" s="45"/>
-      <c r="W4" s="45"/>
-      <c r="X4" s="45"/>
-      <c r="Y4" s="45"/>
-      <c r="Z4" s="45"/>
-      <c r="AA4" s="45"/>
-      <c r="AB4" s="45"/>
-      <c r="AC4" s="45"/>
-      <c r="AD4" s="46"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="63"/>
+      <c r="J4" s="63"/>
+      <c r="K4" s="63"/>
+      <c r="L4" s="63"/>
+      <c r="M4" s="63"/>
+      <c r="N4" s="63"/>
+      <c r="O4" s="63"/>
+      <c r="P4" s="63"/>
+      <c r="Q4" s="63"/>
+      <c r="R4" s="63"/>
+      <c r="S4" s="63"/>
+      <c r="T4" s="63"/>
+      <c r="U4" s="63"/>
+      <c r="V4" s="63"/>
+      <c r="W4" s="63"/>
+      <c r="X4" s="63"/>
+      <c r="Y4" s="63"/>
+      <c r="Z4" s="63"/>
+      <c r="AA4" s="63"/>
+      <c r="AB4" s="63"/>
+      <c r="AC4" s="63"/>
+      <c r="AD4" s="64"/>
       <c r="AE4" s="4"/>
     </row>
-    <row r="5" spans="1:135" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:135" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A5" s="5"/>
       <c r="B5" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="44"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="45"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="45"/>
-      <c r="J5" s="45"/>
-      <c r="K5" s="45"/>
-      <c r="L5" s="45"/>
-      <c r="M5" s="45"/>
-      <c r="N5" s="45"/>
-      <c r="O5" s="45"/>
-      <c r="P5" s="45"/>
-      <c r="Q5" s="45"/>
-      <c r="R5" s="45"/>
-      <c r="S5" s="45"/>
-      <c r="T5" s="45"/>
-      <c r="U5" s="45"/>
-      <c r="V5" s="45"/>
-      <c r="W5" s="45"/>
-      <c r="X5" s="45"/>
-      <c r="Y5" s="45"/>
-      <c r="Z5" s="45"/>
-      <c r="AA5" s="45"/>
-      <c r="AB5" s="45"/>
-      <c r="AC5" s="45"/>
-      <c r="AD5" s="46"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="63"/>
+      <c r="H5" s="63"/>
+      <c r="I5" s="63"/>
+      <c r="J5" s="63"/>
+      <c r="K5" s="63"/>
+      <c r="L5" s="63"/>
+      <c r="M5" s="63"/>
+      <c r="N5" s="63"/>
+      <c r="O5" s="63"/>
+      <c r="P5" s="63"/>
+      <c r="Q5" s="63"/>
+      <c r="R5" s="63"/>
+      <c r="S5" s="63"/>
+      <c r="T5" s="63"/>
+      <c r="U5" s="63"/>
+      <c r="V5" s="63"/>
+      <c r="W5" s="63"/>
+      <c r="X5" s="63"/>
+      <c r="Y5" s="63"/>
+      <c r="Z5" s="63"/>
+      <c r="AA5" s="63"/>
+      <c r="AB5" s="63"/>
+      <c r="AC5" s="63"/>
+      <c r="AD5" s="64"/>
       <c r="AE5" s="4"/>
     </row>
-    <row r="6" spans="1:135" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:135" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A6" s="5"/>
       <c r="B6" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="47"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="45"/>
-      <c r="J6" s="45"/>
-      <c r="K6" s="45"/>
-      <c r="L6" s="45"/>
-      <c r="M6" s="45"/>
-      <c r="N6" s="45"/>
-      <c r="O6" s="45"/>
-      <c r="P6" s="45"/>
-      <c r="Q6" s="45"/>
-      <c r="R6" s="45"/>
-      <c r="S6" s="45"/>
-      <c r="T6" s="45"/>
-      <c r="U6" s="45"/>
-      <c r="V6" s="45"/>
-      <c r="W6" s="45"/>
-      <c r="X6" s="45"/>
-      <c r="Y6" s="45"/>
-      <c r="Z6" s="45"/>
-      <c r="AA6" s="45"/>
-      <c r="AB6" s="45"/>
-      <c r="AC6" s="45"/>
-      <c r="AD6" s="46"/>
+      <c r="C6" s="65"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="63"/>
+      <c r="F6" s="63"/>
+      <c r="G6" s="63"/>
+      <c r="H6" s="63"/>
+      <c r="I6" s="63"/>
+      <c r="J6" s="63"/>
+      <c r="K6" s="63"/>
+      <c r="L6" s="63"/>
+      <c r="M6" s="63"/>
+      <c r="N6" s="63"/>
+      <c r="O6" s="63"/>
+      <c r="P6" s="63"/>
+      <c r="Q6" s="63"/>
+      <c r="R6" s="63"/>
+      <c r="S6" s="63"/>
+      <c r="T6" s="63"/>
+      <c r="U6" s="63"/>
+      <c r="V6" s="63"/>
+      <c r="W6" s="63"/>
+      <c r="X6" s="63"/>
+      <c r="Y6" s="63"/>
+      <c r="Z6" s="63"/>
+      <c r="AA6" s="63"/>
+      <c r="AB6" s="63"/>
+      <c r="AC6" s="63"/>
+      <c r="AD6" s="64"/>
       <c r="AE6" s="4"/>
     </row>
-    <row r="7" spans="1:135" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:135" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A7" s="5"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
@@ -1341,470 +1406,470 @@
       <c r="AD7" s="4"/>
       <c r="AE7" s="4"/>
     </row>
-    <row r="8" spans="1:135" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:135" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A8" s="5"/>
-      <c r="B8" s="38" t="s">
+      <c r="B8" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="48" t="s">
+      <c r="C8" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="37"/>
-      <c r="H8" s="37"/>
-      <c r="I8" s="37"/>
-      <c r="J8" s="37"/>
-      <c r="K8" s="37"/>
-      <c r="L8" s="37"/>
-      <c r="M8" s="37"/>
-      <c r="N8" s="37"/>
-      <c r="O8" s="37"/>
-      <c r="P8" s="37"/>
-      <c r="Q8" s="37"/>
-      <c r="R8" s="37"/>
-      <c r="S8" s="37"/>
-      <c r="T8" s="37"/>
-      <c r="U8" s="37"/>
-      <c r="V8" s="37"/>
-      <c r="W8" s="37"/>
-      <c r="X8" s="37"/>
-      <c r="Y8" s="37"/>
-      <c r="Z8" s="37"/>
-      <c r="AA8" s="37"/>
-      <c r="AB8" s="37"/>
-      <c r="AC8" s="37"/>
-      <c r="AD8" s="37"/>
-      <c r="AE8" s="37"/>
-      <c r="AF8" s="37"/>
-      <c r="AG8" s="37"/>
-      <c r="AH8" s="37"/>
-      <c r="AI8" s="37"/>
-      <c r="AJ8" s="37"/>
-      <c r="AK8" s="37"/>
-      <c r="AL8" s="37"/>
-      <c r="AM8" s="37"/>
-      <c r="AN8" s="37"/>
-      <c r="AO8" s="37"/>
-      <c r="AP8" s="37"/>
-      <c r="AQ8" s="37"/>
-      <c r="AR8" s="37"/>
-      <c r="AS8" s="37"/>
-      <c r="AT8" s="37"/>
-      <c r="AU8" s="37"/>
-      <c r="AV8" s="37"/>
-      <c r="AW8" s="37"/>
-      <c r="AX8" s="37"/>
-      <c r="AY8" s="37"/>
-      <c r="AZ8" s="37"/>
-      <c r="BA8" s="37"/>
-      <c r="BB8" s="37"/>
-      <c r="BC8" s="37"/>
-      <c r="BD8" s="37"/>
-      <c r="BE8" s="37"/>
-      <c r="BF8" s="37"/>
-      <c r="BG8" s="37"/>
-      <c r="BH8" s="37"/>
-      <c r="BI8" s="37"/>
-      <c r="BJ8" s="37"/>
-      <c r="BK8" s="37"/>
-      <c r="BL8" s="37"/>
-      <c r="BM8" s="37"/>
-      <c r="BN8" s="37"/>
-      <c r="BO8" s="37"/>
-      <c r="BP8" s="37"/>
-      <c r="BQ8" s="37"/>
-      <c r="BR8" s="37"/>
-      <c r="BS8" s="37"/>
-      <c r="BT8" s="37"/>
-      <c r="BU8" s="37"/>
-      <c r="BV8" s="37"/>
-      <c r="BW8" s="37"/>
-      <c r="BX8" s="37"/>
-      <c r="BY8" s="37"/>
-      <c r="BZ8" s="37"/>
-      <c r="CA8" s="37"/>
-      <c r="CB8" s="37"/>
-      <c r="CC8" s="37"/>
-      <c r="CD8" s="37"/>
-      <c r="CE8" s="37"/>
-      <c r="CF8" s="37"/>
-      <c r="CG8" s="37"/>
-      <c r="CH8" s="37"/>
-      <c r="CI8" s="37"/>
-      <c r="CJ8" s="37"/>
-      <c r="CK8" s="37"/>
-      <c r="CL8" s="37"/>
-      <c r="CM8" s="37"/>
-      <c r="CN8" s="37"/>
-      <c r="CO8" s="37"/>
-      <c r="CP8" s="37"/>
-      <c r="CQ8" s="37"/>
-      <c r="CR8" s="37"/>
-      <c r="CS8" s="37"/>
-      <c r="CT8" s="37"/>
-      <c r="CU8" s="37"/>
-      <c r="CV8" s="37"/>
-      <c r="CW8" s="37"/>
-      <c r="CX8" s="37"/>
-      <c r="CY8" s="37"/>
-      <c r="CZ8" s="37"/>
-      <c r="DA8" s="37"/>
-      <c r="DB8" s="37"/>
-      <c r="DC8" s="37"/>
-      <c r="DD8" s="37"/>
-      <c r="DE8" s="37"/>
-      <c r="DF8" s="37"/>
-      <c r="DG8" s="37"/>
-      <c r="DH8" s="37"/>
-      <c r="DI8" s="37"/>
-      <c r="DJ8" s="37"/>
-      <c r="DK8" s="37"/>
-      <c r="DL8" s="37"/>
-      <c r="DM8" s="37"/>
-      <c r="DN8" s="37"/>
-      <c r="DO8" s="37"/>
-      <c r="DP8" s="37"/>
-      <c r="DQ8" s="37"/>
-      <c r="DR8" s="37"/>
-      <c r="DS8" s="37"/>
-      <c r="DT8" s="37"/>
-      <c r="DU8" s="37"/>
-      <c r="DV8" s="37"/>
-      <c r="DW8" s="37"/>
-      <c r="DX8" s="37"/>
-      <c r="DY8" s="37"/>
-      <c r="DZ8" s="37"/>
-      <c r="EA8" s="37"/>
-      <c r="EB8" s="37"/>
-      <c r="EC8" s="37"/>
-      <c r="ED8" s="37"/>
-      <c r="EE8" s="37"/>
-    </row>
-    <row r="9" spans="1:135" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="D8" s="55"/>
+      <c r="E8" s="55"/>
+      <c r="F8" s="55"/>
+      <c r="G8" s="55"/>
+      <c r="H8" s="55"/>
+      <c r="I8" s="55"/>
+      <c r="J8" s="55"/>
+      <c r="K8" s="55"/>
+      <c r="L8" s="55"/>
+      <c r="M8" s="55"/>
+      <c r="N8" s="55"/>
+      <c r="O8" s="55"/>
+      <c r="P8" s="55"/>
+      <c r="Q8" s="55"/>
+      <c r="R8" s="55"/>
+      <c r="S8" s="55"/>
+      <c r="T8" s="55"/>
+      <c r="U8" s="55"/>
+      <c r="V8" s="55"/>
+      <c r="W8" s="55"/>
+      <c r="X8" s="55"/>
+      <c r="Y8" s="55"/>
+      <c r="Z8" s="55"/>
+      <c r="AA8" s="55"/>
+      <c r="AB8" s="55"/>
+      <c r="AC8" s="55"/>
+      <c r="AD8" s="55"/>
+      <c r="AE8" s="55"/>
+      <c r="AF8" s="55"/>
+      <c r="AG8" s="55"/>
+      <c r="AH8" s="55"/>
+      <c r="AI8" s="55"/>
+      <c r="AJ8" s="55"/>
+      <c r="AK8" s="55"/>
+      <c r="AL8" s="55"/>
+      <c r="AM8" s="55"/>
+      <c r="AN8" s="55"/>
+      <c r="AO8" s="55"/>
+      <c r="AP8" s="55"/>
+      <c r="AQ8" s="55"/>
+      <c r="AR8" s="55"/>
+      <c r="AS8" s="55"/>
+      <c r="AT8" s="55"/>
+      <c r="AU8" s="55"/>
+      <c r="AV8" s="55"/>
+      <c r="AW8" s="55"/>
+      <c r="AX8" s="55"/>
+      <c r="AY8" s="55"/>
+      <c r="AZ8" s="55"/>
+      <c r="BA8" s="55"/>
+      <c r="BB8" s="55"/>
+      <c r="BC8" s="55"/>
+      <c r="BD8" s="55"/>
+      <c r="BE8" s="55"/>
+      <c r="BF8" s="55"/>
+      <c r="BG8" s="55"/>
+      <c r="BH8" s="55"/>
+      <c r="BI8" s="55"/>
+      <c r="BJ8" s="55"/>
+      <c r="BK8" s="55"/>
+      <c r="BL8" s="55"/>
+      <c r="BM8" s="55"/>
+      <c r="BN8" s="55"/>
+      <c r="BO8" s="55"/>
+      <c r="BP8" s="55"/>
+      <c r="BQ8" s="55"/>
+      <c r="BR8" s="55"/>
+      <c r="BS8" s="55"/>
+      <c r="BT8" s="55"/>
+      <c r="BU8" s="55"/>
+      <c r="BV8" s="55"/>
+      <c r="BW8" s="55"/>
+      <c r="BX8" s="55"/>
+      <c r="BY8" s="55"/>
+      <c r="BZ8" s="55"/>
+      <c r="CA8" s="55"/>
+      <c r="CB8" s="55"/>
+      <c r="CC8" s="55"/>
+      <c r="CD8" s="55"/>
+      <c r="CE8" s="55"/>
+      <c r="CF8" s="55"/>
+      <c r="CG8" s="55"/>
+      <c r="CH8" s="55"/>
+      <c r="CI8" s="55"/>
+      <c r="CJ8" s="55"/>
+      <c r="CK8" s="55"/>
+      <c r="CL8" s="55"/>
+      <c r="CM8" s="55"/>
+      <c r="CN8" s="55"/>
+      <c r="CO8" s="55"/>
+      <c r="CP8" s="55"/>
+      <c r="CQ8" s="55"/>
+      <c r="CR8" s="55"/>
+      <c r="CS8" s="55"/>
+      <c r="CT8" s="55"/>
+      <c r="CU8" s="55"/>
+      <c r="CV8" s="55"/>
+      <c r="CW8" s="55"/>
+      <c r="CX8" s="55"/>
+      <c r="CY8" s="55"/>
+      <c r="CZ8" s="55"/>
+      <c r="DA8" s="55"/>
+      <c r="DB8" s="55"/>
+      <c r="DC8" s="55"/>
+      <c r="DD8" s="55"/>
+      <c r="DE8" s="55"/>
+      <c r="DF8" s="55"/>
+      <c r="DG8" s="55"/>
+      <c r="DH8" s="55"/>
+      <c r="DI8" s="55"/>
+      <c r="DJ8" s="55"/>
+      <c r="DK8" s="55"/>
+      <c r="DL8" s="55"/>
+      <c r="DM8" s="55"/>
+      <c r="DN8" s="55"/>
+      <c r="DO8" s="55"/>
+      <c r="DP8" s="55"/>
+      <c r="DQ8" s="55"/>
+      <c r="DR8" s="55"/>
+      <c r="DS8" s="55"/>
+      <c r="DT8" s="55"/>
+      <c r="DU8" s="55"/>
+      <c r="DV8" s="55"/>
+      <c r="DW8" s="55"/>
+      <c r="DX8" s="55"/>
+      <c r="DY8" s="55"/>
+      <c r="DZ8" s="55"/>
+      <c r="EA8" s="55"/>
+      <c r="EB8" s="55"/>
+      <c r="EC8" s="55"/>
+      <c r="ED8" s="55"/>
+      <c r="EE8" s="55"/>
+    </row>
+    <row r="9" spans="1:135" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A9" s="5"/>
-      <c r="B9" s="39"/>
-      <c r="C9" s="49" t="s">
+      <c r="B9" s="57"/>
+      <c r="C9" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="37"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="37"/>
-      <c r="G9" s="37"/>
-      <c r="H9" s="37"/>
-      <c r="I9" s="37"/>
-      <c r="J9" s="53" t="s">
+      <c r="D9" s="55"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="55"/>
+      <c r="G9" s="55"/>
+      <c r="H9" s="55"/>
+      <c r="I9" s="55"/>
+      <c r="J9" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="K9" s="54"/>
-      <c r="L9" s="54"/>
-      <c r="M9" s="54"/>
-      <c r="N9" s="54"/>
-      <c r="O9" s="54"/>
-      <c r="P9" s="55"/>
-      <c r="Q9" s="53" t="s">
+      <c r="K9" s="38"/>
+      <c r="L9" s="38"/>
+      <c r="M9" s="38"/>
+      <c r="N9" s="38"/>
+      <c r="O9" s="38"/>
+      <c r="P9" s="39"/>
+      <c r="Q9" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="R9" s="54"/>
-      <c r="S9" s="54"/>
-      <c r="T9" s="54"/>
-      <c r="U9" s="54"/>
-      <c r="V9" s="54"/>
-      <c r="W9" s="55"/>
-      <c r="X9" s="53" t="s">
+      <c r="R9" s="38"/>
+      <c r="S9" s="38"/>
+      <c r="T9" s="38"/>
+      <c r="U9" s="38"/>
+      <c r="V9" s="38"/>
+      <c r="W9" s="39"/>
+      <c r="X9" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="Y9" s="54"/>
-      <c r="Z9" s="54"/>
-      <c r="AA9" s="54"/>
-      <c r="AB9" s="54"/>
-      <c r="AC9" s="54"/>
-      <c r="AD9" s="55"/>
-      <c r="AE9" s="69" t="s">
+      <c r="Y9" s="38"/>
+      <c r="Z9" s="38"/>
+      <c r="AA9" s="38"/>
+      <c r="AB9" s="38"/>
+      <c r="AC9" s="38"/>
+      <c r="AD9" s="39"/>
+      <c r="AE9" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="AF9" s="69"/>
-      <c r="AG9" s="69"/>
-      <c r="AH9" s="69"/>
-      <c r="AI9" s="69"/>
-      <c r="AJ9" s="69"/>
-      <c r="AK9" s="69"/>
-      <c r="AL9" s="70" t="s">
+      <c r="AF9" s="40"/>
+      <c r="AG9" s="40"/>
+      <c r="AH9" s="40"/>
+      <c r="AI9" s="40"/>
+      <c r="AJ9" s="40"/>
+      <c r="AK9" s="40"/>
+      <c r="AL9" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="AM9" s="54"/>
-      <c r="AN9" s="54"/>
-      <c r="AO9" s="54"/>
-      <c r="AP9" s="54"/>
-      <c r="AQ9" s="54"/>
-      <c r="AR9" s="55"/>
-      <c r="AS9" s="53" t="s">
+      <c r="AM9" s="38"/>
+      <c r="AN9" s="38"/>
+      <c r="AO9" s="38"/>
+      <c r="AP9" s="38"/>
+      <c r="AQ9" s="38"/>
+      <c r="AR9" s="39"/>
+      <c r="AS9" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="AT9" s="54"/>
-      <c r="AU9" s="54"/>
-      <c r="AV9" s="54"/>
-      <c r="AW9" s="54"/>
-      <c r="AX9" s="54"/>
-      <c r="AY9" s="55"/>
-      <c r="AZ9" s="53" t="s">
+      <c r="AT9" s="38"/>
+      <c r="AU9" s="38"/>
+      <c r="AV9" s="38"/>
+      <c r="AW9" s="38"/>
+      <c r="AX9" s="38"/>
+      <c r="AY9" s="39"/>
+      <c r="AZ9" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="BA9" s="54"/>
-      <c r="BB9" s="54"/>
-      <c r="BC9" s="54"/>
-      <c r="BD9" s="54"/>
-      <c r="BE9" s="54"/>
-      <c r="BF9" s="55"/>
-      <c r="BG9" s="53" t="s">
+      <c r="BA9" s="38"/>
+      <c r="BB9" s="38"/>
+      <c r="BC9" s="38"/>
+      <c r="BD9" s="38"/>
+      <c r="BE9" s="38"/>
+      <c r="BF9" s="39"/>
+      <c r="BG9" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="BH9" s="54"/>
-      <c r="BI9" s="54"/>
-      <c r="BJ9" s="54"/>
-      <c r="BK9" s="54"/>
-      <c r="BL9" s="54"/>
-      <c r="BM9" s="55"/>
-      <c r="BN9" s="53" t="s">
+      <c r="BH9" s="38"/>
+      <c r="BI9" s="38"/>
+      <c r="BJ9" s="38"/>
+      <c r="BK9" s="38"/>
+      <c r="BL9" s="38"/>
+      <c r="BM9" s="39"/>
+      <c r="BN9" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="BO9" s="54"/>
-      <c r="BP9" s="54"/>
-      <c r="BQ9" s="54"/>
-      <c r="BR9" s="54"/>
-      <c r="BS9" s="54"/>
-      <c r="BT9" s="55"/>
-      <c r="BU9" s="53" t="s">
+      <c r="BO9" s="38"/>
+      <c r="BP9" s="38"/>
+      <c r="BQ9" s="38"/>
+      <c r="BR9" s="38"/>
+      <c r="BS9" s="38"/>
+      <c r="BT9" s="39"/>
+      <c r="BU9" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="BV9" s="54"/>
-      <c r="BW9" s="54"/>
-      <c r="BX9" s="54"/>
-      <c r="BY9" s="54"/>
-      <c r="BZ9" s="54"/>
-      <c r="CA9" s="55"/>
-      <c r="CB9" s="53" t="s">
+      <c r="BV9" s="38"/>
+      <c r="BW9" s="38"/>
+      <c r="BX9" s="38"/>
+      <c r="BY9" s="38"/>
+      <c r="BZ9" s="38"/>
+      <c r="CA9" s="39"/>
+      <c r="CB9" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="CC9" s="54"/>
-      <c r="CD9" s="54"/>
-      <c r="CE9" s="54"/>
-      <c r="CF9" s="54"/>
-      <c r="CG9" s="54"/>
-      <c r="CH9" s="55"/>
-      <c r="CI9" s="53" t="s">
+      <c r="CC9" s="38"/>
+      <c r="CD9" s="38"/>
+      <c r="CE9" s="38"/>
+      <c r="CF9" s="38"/>
+      <c r="CG9" s="38"/>
+      <c r="CH9" s="39"/>
+      <c r="CI9" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="CJ9" s="54"/>
-      <c r="CK9" s="54"/>
-      <c r="CL9" s="54"/>
-      <c r="CM9" s="54"/>
-      <c r="CN9" s="54"/>
-      <c r="CO9" s="55"/>
-      <c r="CP9" s="53" t="s">
+      <c r="CJ9" s="38"/>
+      <c r="CK9" s="38"/>
+      <c r="CL9" s="38"/>
+      <c r="CM9" s="38"/>
+      <c r="CN9" s="38"/>
+      <c r="CO9" s="39"/>
+      <c r="CP9" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="CQ9" s="54"/>
-      <c r="CR9" s="54"/>
-      <c r="CS9" s="54"/>
-      <c r="CT9" s="54"/>
-      <c r="CU9" s="54"/>
-      <c r="CV9" s="55"/>
-      <c r="CW9" s="53" t="s">
+      <c r="CQ9" s="38"/>
+      <c r="CR9" s="38"/>
+      <c r="CS9" s="38"/>
+      <c r="CT9" s="38"/>
+      <c r="CU9" s="38"/>
+      <c r="CV9" s="39"/>
+      <c r="CW9" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="CX9" s="54"/>
-      <c r="CY9" s="54"/>
-      <c r="CZ9" s="54"/>
-      <c r="DA9" s="54"/>
-      <c r="DB9" s="54"/>
-      <c r="DC9" s="55"/>
-      <c r="DD9" s="53" t="s">
+      <c r="CX9" s="38"/>
+      <c r="CY9" s="38"/>
+      <c r="CZ9" s="38"/>
+      <c r="DA9" s="38"/>
+      <c r="DB9" s="38"/>
+      <c r="DC9" s="39"/>
+      <c r="DD9" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="DE9" s="54"/>
-      <c r="DF9" s="54"/>
-      <c r="DG9" s="54"/>
-      <c r="DH9" s="54"/>
-      <c r="DI9" s="54"/>
-      <c r="DJ9" s="55"/>
-      <c r="DK9" s="49" t="s">
+      <c r="DE9" s="38"/>
+      <c r="DF9" s="38"/>
+      <c r="DG9" s="38"/>
+      <c r="DH9" s="38"/>
+      <c r="DI9" s="38"/>
+      <c r="DJ9" s="39"/>
+      <c r="DK9" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="DL9" s="49"/>
-      <c r="DM9" s="49"/>
-      <c r="DN9" s="49"/>
-      <c r="DO9" s="49"/>
-      <c r="DP9" s="49"/>
-      <c r="DQ9" s="49"/>
-      <c r="DR9" s="49" t="s">
+      <c r="DL9" s="36"/>
+      <c r="DM9" s="36"/>
+      <c r="DN9" s="36"/>
+      <c r="DO9" s="36"/>
+      <c r="DP9" s="36"/>
+      <c r="DQ9" s="36"/>
+      <c r="DR9" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="DS9" s="49"/>
-      <c r="DT9" s="49"/>
-      <c r="DU9" s="49"/>
-      <c r="DV9" s="49"/>
-      <c r="DW9" s="49"/>
-      <c r="DX9" s="49"/>
-      <c r="DY9" s="53" t="s">
+      <c r="DS9" s="36"/>
+      <c r="DT9" s="36"/>
+      <c r="DU9" s="36"/>
+      <c r="DV9" s="36"/>
+      <c r="DW9" s="36"/>
+      <c r="DX9" s="36"/>
+      <c r="DY9" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="DZ9" s="54"/>
-      <c r="EA9" s="54"/>
-      <c r="EB9" s="54"/>
-      <c r="EC9" s="54"/>
-      <c r="ED9" s="54"/>
-      <c r="EE9" s="55"/>
-    </row>
-    <row r="10" spans="1:135" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="DZ9" s="38"/>
+      <c r="EA9" s="38"/>
+      <c r="EB9" s="38"/>
+      <c r="EC9" s="38"/>
+      <c r="ED9" s="38"/>
+      <c r="EE9" s="39"/>
+    </row>
+    <row r="10" spans="1:135" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A10" s="9"/>
-      <c r="B10" s="40"/>
-      <c r="C10" s="52" t="s">
+      <c r="B10" s="58"/>
+      <c r="C10" s="69" t="s">
+        <v>70</v>
+      </c>
+      <c r="D10" s="55"/>
+      <c r="E10" s="55"/>
+      <c r="F10" s="55"/>
+      <c r="G10" s="55"/>
+      <c r="H10" s="55"/>
+      <c r="I10" s="55"/>
+      <c r="J10" s="55"/>
+      <c r="K10" s="55"/>
+      <c r="L10" s="55"/>
+      <c r="M10" s="55"/>
+      <c r="N10" s="55"/>
+      <c r="O10" s="55"/>
+      <c r="P10" s="55"/>
+      <c r="Q10" s="55"/>
+      <c r="R10" s="55"/>
+      <c r="S10" s="55"/>
+      <c r="T10" s="55"/>
+      <c r="U10" s="55"/>
+      <c r="V10" s="55"/>
+      <c r="W10" s="55"/>
+      <c r="X10" s="55"/>
+      <c r="Y10" s="55"/>
+      <c r="Z10" s="55"/>
+      <c r="AA10" s="55"/>
+      <c r="AB10" s="67" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC10" s="55"/>
+      <c r="AD10" s="55"/>
+      <c r="AE10" s="55"/>
+      <c r="AF10" s="55"/>
+      <c r="AG10" s="55"/>
+      <c r="AH10" s="55"/>
+      <c r="AI10" s="55"/>
+      <c r="AJ10" s="55"/>
+      <c r="AK10" s="55"/>
+      <c r="AL10" s="55"/>
+      <c r="AM10" s="55"/>
+      <c r="AN10" s="55"/>
+      <c r="AO10" s="55"/>
+      <c r="AP10" s="55"/>
+      <c r="AQ10" s="55"/>
+      <c r="AR10" s="55"/>
+      <c r="AS10" s="55"/>
+      <c r="AT10" s="55"/>
+      <c r="AU10" s="55"/>
+      <c r="AV10" s="55"/>
+      <c r="AW10" s="55"/>
+      <c r="AX10" s="55"/>
+      <c r="AY10" s="55"/>
+      <c r="AZ10" s="55"/>
+      <c r="BA10" s="55"/>
+      <c r="BB10" s="55"/>
+      <c r="BC10" s="55"/>
+      <c r="BD10" s="55"/>
+      <c r="BE10" s="55"/>
+      <c r="BF10" s="68" t="s">
+        <v>72</v>
+      </c>
+      <c r="BG10" s="55"/>
+      <c r="BH10" s="55"/>
+      <c r="BI10" s="55"/>
+      <c r="BJ10" s="55"/>
+      <c r="BK10" s="55"/>
+      <c r="BL10" s="55"/>
+      <c r="BM10" s="55"/>
+      <c r="BN10" s="55"/>
+      <c r="BO10" s="55"/>
+      <c r="BP10" s="55"/>
+      <c r="BQ10" s="55"/>
+      <c r="BR10" s="55"/>
+      <c r="BS10" s="55"/>
+      <c r="BT10" s="55"/>
+      <c r="BU10" s="55"/>
+      <c r="BV10" s="55"/>
+      <c r="BW10" s="55"/>
+      <c r="BX10" s="55"/>
+      <c r="BY10" s="55"/>
+      <c r="BZ10" s="55"/>
+      <c r="CA10" s="55"/>
+      <c r="CB10" s="55"/>
+      <c r="CC10" s="55"/>
+      <c r="CD10" s="55"/>
+      <c r="CE10" s="55"/>
+      <c r="CF10" s="55"/>
+      <c r="CG10" s="55"/>
+      <c r="CH10" s="55"/>
+      <c r="CI10" s="55"/>
+      <c r="CJ10" s="55"/>
+      <c r="CK10" s="70" t="s">
         <v>73</v>
       </c>
-      <c r="D10" s="37"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="37"/>
-      <c r="G10" s="37"/>
-      <c r="H10" s="37"/>
-      <c r="I10" s="37"/>
-      <c r="J10" s="37"/>
-      <c r="K10" s="37"/>
-      <c r="L10" s="37"/>
-      <c r="M10" s="37"/>
-      <c r="N10" s="37"/>
-      <c r="O10" s="37"/>
-      <c r="P10" s="37"/>
-      <c r="Q10" s="37"/>
-      <c r="R10" s="37"/>
-      <c r="S10" s="37"/>
-      <c r="T10" s="37"/>
-      <c r="U10" s="37"/>
-      <c r="V10" s="37"/>
-      <c r="W10" s="37"/>
-      <c r="X10" s="37"/>
-      <c r="Y10" s="37"/>
-      <c r="Z10" s="37"/>
-      <c r="AA10" s="37"/>
-      <c r="AB10" s="50" t="s">
+      <c r="CL10" s="55"/>
+      <c r="CM10" s="55"/>
+      <c r="CN10" s="55"/>
+      <c r="CO10" s="55"/>
+      <c r="CP10" s="55"/>
+      <c r="CQ10" s="55"/>
+      <c r="CR10" s="55"/>
+      <c r="CS10" s="55"/>
+      <c r="CT10" s="55"/>
+      <c r="CU10" s="55"/>
+      <c r="CV10" s="55"/>
+      <c r="CW10" s="55"/>
+      <c r="CX10" s="55"/>
+      <c r="CY10" s="55"/>
+      <c r="CZ10" s="55"/>
+      <c r="DA10" s="55"/>
+      <c r="DB10" s="55"/>
+      <c r="DC10" s="55"/>
+      <c r="DD10" s="55"/>
+      <c r="DE10" s="55"/>
+      <c r="DF10" s="55"/>
+      <c r="DG10" s="55"/>
+      <c r="DH10" s="55"/>
+      <c r="DI10" s="55"/>
+      <c r="DJ10" s="55"/>
+      <c r="DK10" s="55"/>
+      <c r="DL10" s="55"/>
+      <c r="DM10" s="55"/>
+      <c r="DN10" s="55"/>
+      <c r="DO10" s="54" t="s">
         <v>74</v>
       </c>
-      <c r="AC10" s="37"/>
-      <c r="AD10" s="37"/>
-      <c r="AE10" s="37"/>
-      <c r="AF10" s="37"/>
-      <c r="AG10" s="37"/>
-      <c r="AH10" s="37"/>
-      <c r="AI10" s="37"/>
-      <c r="AJ10" s="37"/>
-      <c r="AK10" s="37"/>
-      <c r="AL10" s="37"/>
-      <c r="AM10" s="37"/>
-      <c r="AN10" s="37"/>
-      <c r="AO10" s="37"/>
-      <c r="AP10" s="37"/>
-      <c r="AQ10" s="37"/>
-      <c r="AR10" s="37"/>
-      <c r="AS10" s="37"/>
-      <c r="AT10" s="37"/>
-      <c r="AU10" s="37"/>
-      <c r="AV10" s="37"/>
-      <c r="AW10" s="37"/>
-      <c r="AX10" s="37"/>
-      <c r="AY10" s="37"/>
-      <c r="AZ10" s="37"/>
-      <c r="BA10" s="37"/>
-      <c r="BB10" s="37"/>
-      <c r="BC10" s="37"/>
-      <c r="BD10" s="37"/>
-      <c r="BE10" s="37"/>
-      <c r="BF10" s="51" t="s">
-        <v>75</v>
-      </c>
-      <c r="BG10" s="37"/>
-      <c r="BH10" s="37"/>
-      <c r="BI10" s="37"/>
-      <c r="BJ10" s="37"/>
-      <c r="BK10" s="37"/>
-      <c r="BL10" s="37"/>
-      <c r="BM10" s="37"/>
-      <c r="BN10" s="37"/>
-      <c r="BO10" s="37"/>
-      <c r="BP10" s="37"/>
-      <c r="BQ10" s="37"/>
-      <c r="BR10" s="37"/>
-      <c r="BS10" s="37"/>
-      <c r="BT10" s="37"/>
-      <c r="BU10" s="37"/>
-      <c r="BV10" s="37"/>
-      <c r="BW10" s="37"/>
-      <c r="BX10" s="37"/>
-      <c r="BY10" s="37"/>
-      <c r="BZ10" s="37"/>
-      <c r="CA10" s="37"/>
-      <c r="CB10" s="37"/>
-      <c r="CC10" s="37"/>
-      <c r="CD10" s="37"/>
-      <c r="CE10" s="37"/>
-      <c r="CF10" s="37"/>
-      <c r="CG10" s="37"/>
-      <c r="CH10" s="37"/>
-      <c r="CI10" s="37"/>
-      <c r="CJ10" s="37"/>
-      <c r="CK10" s="56" t="s">
-        <v>76</v>
-      </c>
-      <c r="CL10" s="37"/>
-      <c r="CM10" s="37"/>
-      <c r="CN10" s="37"/>
-      <c r="CO10" s="37"/>
-      <c r="CP10" s="37"/>
-      <c r="CQ10" s="37"/>
-      <c r="CR10" s="37"/>
-      <c r="CS10" s="37"/>
-      <c r="CT10" s="37"/>
-      <c r="CU10" s="37"/>
-      <c r="CV10" s="37"/>
-      <c r="CW10" s="37"/>
-      <c r="CX10" s="37"/>
-      <c r="CY10" s="37"/>
-      <c r="CZ10" s="37"/>
-      <c r="DA10" s="37"/>
-      <c r="DB10" s="37"/>
-      <c r="DC10" s="37"/>
-      <c r="DD10" s="37"/>
-      <c r="DE10" s="37"/>
-      <c r="DF10" s="37"/>
-      <c r="DG10" s="37"/>
-      <c r="DH10" s="37"/>
-      <c r="DI10" s="37"/>
-      <c r="DJ10" s="37"/>
-      <c r="DK10" s="37"/>
-      <c r="DL10" s="37"/>
-      <c r="DM10" s="37"/>
-      <c r="DN10" s="37"/>
-      <c r="DO10" s="36" t="s">
-        <v>77</v>
-      </c>
-      <c r="DP10" s="37"/>
-      <c r="DQ10" s="37"/>
-      <c r="DR10" s="37"/>
-      <c r="DS10" s="37"/>
-      <c r="DT10" s="37"/>
-      <c r="DU10" s="37"/>
-      <c r="DV10" s="37"/>
-      <c r="DW10" s="37"/>
-      <c r="DX10" s="37"/>
-      <c r="DY10" s="37"/>
-      <c r="DZ10" s="37"/>
-      <c r="EA10" s="37"/>
-      <c r="EB10" s="37"/>
-      <c r="EC10" s="37"/>
-      <c r="ED10" s="37"/>
-      <c r="EE10" s="37"/>
-    </row>
-    <row r="11" spans="1:135" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="DP10" s="55"/>
+      <c r="DQ10" s="55"/>
+      <c r="DR10" s="55"/>
+      <c r="DS10" s="55"/>
+      <c r="DT10" s="55"/>
+      <c r="DU10" s="55"/>
+      <c r="DV10" s="55"/>
+      <c r="DW10" s="55"/>
+      <c r="DX10" s="55"/>
+      <c r="DY10" s="55"/>
+      <c r="DZ10" s="55"/>
+      <c r="EA10" s="55"/>
+      <c r="EB10" s="55"/>
+      <c r="EC10" s="55"/>
+      <c r="ED10" s="55"/>
+      <c r="EE10" s="55"/>
+    </row>
+    <row r="11" spans="1:135" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A11" s="9"/>
       <c r="B11" s="10" t="s">
         <v>23</v>
@@ -2187,13 +2252,13 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:135" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:135" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A12" s="5"/>
       <c r="B12" s="11" t="s">
         <v>24</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D12" s="23"/>
       <c r="E12" s="23"/>
@@ -2328,21 +2393,21 @@
       <c r="ED12" s="21"/>
       <c r="EE12" s="21"/>
     </row>
-    <row r="13" spans="1:135" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:135" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A13" s="5"/>
       <c r="B13" s="11" t="s">
         <v>25</v>
       </c>
       <c r="C13" s="23"/>
-      <c r="D13" s="23" t="s">
-        <v>78</v>
-      </c>
+      <c r="D13" s="23"/>
       <c r="E13" s="23"/>
       <c r="F13" s="24"/>
       <c r="G13" s="24"/>
       <c r="H13" s="29"/>
       <c r="I13" s="29"/>
-      <c r="J13" s="21"/>
+      <c r="J13" s="21" t="s">
+        <v>75</v>
+      </c>
       <c r="K13" s="21"/>
       <c r="L13" s="21"/>
       <c r="M13" s="21"/>
@@ -2469,15 +2534,13 @@
       <c r="ED13" s="21"/>
       <c r="EE13" s="21"/>
     </row>
-    <row r="14" spans="1:135" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:135" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A14" s="5"/>
       <c r="B14" s="11" t="s">
         <v>33</v>
       </c>
       <c r="C14" s="21"/>
-      <c r="D14" s="21" t="s">
-        <v>78</v>
-      </c>
+      <c r="D14" s="21"/>
       <c r="E14" s="21"/>
       <c r="F14" s="21"/>
       <c r="G14" s="21"/>
@@ -2486,7 +2549,9 @@
       <c r="J14" s="21"/>
       <c r="K14" s="21"/>
       <c r="L14" s="21"/>
-      <c r="M14" s="21"/>
+      <c r="M14" s="21" t="s">
+        <v>75</v>
+      </c>
       <c r="N14" s="21"/>
       <c r="O14" s="21"/>
       <c r="P14" s="21"/>
@@ -2610,15 +2675,13 @@
       <c r="ED14" s="21"/>
       <c r="EE14" s="21"/>
     </row>
-    <row r="15" spans="1:135" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:135" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A15" s="5"/>
       <c r="B15" s="11" t="s">
         <v>26</v>
       </c>
       <c r="C15" s="21"/>
-      <c r="D15" s="21" t="s">
-        <v>78</v>
-      </c>
+      <c r="D15" s="21"/>
       <c r="E15" s="21"/>
       <c r="F15" s="21"/>
       <c r="G15" s="21"/>
@@ -2650,7 +2713,9 @@
       <c r="AG15" s="21"/>
       <c r="AH15" s="21"/>
       <c r="AI15" s="21"/>
-      <c r="AJ15" s="21"/>
+      <c r="AJ15" s="21" t="s">
+        <v>75</v>
+      </c>
       <c r="AK15" s="21"/>
       <c r="AL15" s="21"/>
       <c r="AM15" s="21"/>
@@ -2751,7 +2816,7 @@
       <c r="ED15" s="21"/>
       <c r="EE15" s="21"/>
     </row>
-    <row r="16" spans="1:135" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:135" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="5"/>
       <c r="B16" s="10" t="s">
         <v>27</v>
@@ -2890,15 +2955,13 @@
       <c r="ED16" s="21"/>
       <c r="EE16" s="21"/>
     </row>
-    <row r="17" spans="1:135" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:135" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="5"/>
       <c r="B17" s="11" t="s">
         <v>28</v>
       </c>
       <c r="C17" s="21"/>
-      <c r="D17" s="21" t="s">
-        <v>78</v>
-      </c>
+      <c r="D17" s="21"/>
       <c r="E17" s="21"/>
       <c r="F17" s="21"/>
       <c r="G17" s="21"/>
@@ -2936,7 +2999,9 @@
       <c r="AM17" s="21"/>
       <c r="AN17" s="21"/>
       <c r="AO17" s="21"/>
-      <c r="AP17" s="21"/>
+      <c r="AP17" s="21" t="s">
+        <v>75</v>
+      </c>
       <c r="AQ17" s="21"/>
       <c r="AR17" s="21"/>
       <c r="AS17" s="21"/>
@@ -3031,15 +3096,13 @@
       <c r="ED17" s="21"/>
       <c r="EE17" s="21"/>
     </row>
-    <row r="18" spans="1:135" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:135" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="35"/>
       <c r="B18" s="34" t="s">
         <v>29</v>
       </c>
       <c r="C18" s="21"/>
-      <c r="D18" s="21" t="s">
-        <v>78</v>
-      </c>
+      <c r="D18" s="21"/>
       <c r="E18" s="21"/>
       <c r="F18" s="21"/>
       <c r="G18" s="21"/>
@@ -3088,7 +3151,9 @@
       <c r="AX18" s="21"/>
       <c r="AY18" s="21"/>
       <c r="AZ18" s="21"/>
-      <c r="BA18" s="21"/>
+      <c r="BA18" s="21" t="s">
+        <v>75</v>
+      </c>
       <c r="BB18" s="21"/>
       <c r="BC18" s="21"/>
       <c r="BD18" s="21"/>
@@ -3172,7 +3237,7 @@
       <c r="ED18" s="21"/>
       <c r="EE18" s="21"/>
     </row>
-    <row r="19" spans="1:135" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:135" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19" s="11" t="s">
         <v>30</v>
       </c>
@@ -3180,9 +3245,7 @@
       <c r="D19" s="21"/>
       <c r="E19" s="21"/>
       <c r="F19" s="21"/>
-      <c r="G19" s="21" t="s">
-        <v>78</v>
-      </c>
+      <c r="G19" s="21"/>
       <c r="H19" s="29"/>
       <c r="I19" s="29"/>
       <c r="J19" s="21"/>
@@ -3240,7 +3303,9 @@
       <c r="BJ19" s="21"/>
       <c r="BK19" s="21"/>
       <c r="BL19" s="21"/>
-      <c r="BM19" s="21"/>
+      <c r="BM19" s="21" t="s">
+        <v>75</v>
+      </c>
       <c r="BN19" s="21"/>
       <c r="BO19" s="21"/>
       <c r="BP19" s="21"/>
@@ -3312,7 +3377,7 @@
       <c r="ED19" s="21"/>
       <c r="EE19" s="21"/>
     </row>
-    <row r="20" spans="1:135" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:135" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B20" s="11" t="s">
         <v>31</v>
       </c>
@@ -3323,9 +3388,7 @@
       <c r="G20" s="21"/>
       <c r="H20" s="29"/>
       <c r="I20" s="29"/>
-      <c r="J20" s="21" t="s">
-        <v>78</v>
-      </c>
+      <c r="J20" s="21"/>
       <c r="K20" s="21"/>
       <c r="L20" s="21"/>
       <c r="M20" s="21"/>
@@ -3389,7 +3452,9 @@
       <c r="BS20" s="21"/>
       <c r="BT20" s="21"/>
       <c r="BU20" s="21"/>
-      <c r="BV20" s="21"/>
+      <c r="BV20" s="21" t="s">
+        <v>75</v>
+      </c>
       <c r="BW20" s="21"/>
       <c r="BX20" s="21"/>
       <c r="BY20" s="21"/>
@@ -3452,7 +3517,7 @@
       <c r="ED20" s="21"/>
       <c r="EE20" s="21"/>
     </row>
-    <row r="21" spans="1:135" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:135" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B21" s="11" t="s">
         <v>32</v>
       </c>
@@ -3463,9 +3528,7 @@
       <c r="G21" s="21"/>
       <c r="H21" s="29"/>
       <c r="I21" s="29"/>
-      <c r="J21" s="21" t="s">
-        <v>78</v>
-      </c>
+      <c r="J21" s="21"/>
       <c r="K21" s="21"/>
       <c r="L21" s="21"/>
       <c r="M21" s="21"/>
@@ -3540,7 +3603,9 @@
       <c r="CD21" s="21"/>
       <c r="CE21" s="21"/>
       <c r="CF21" s="21"/>
-      <c r="CG21" s="21"/>
+      <c r="CG21" s="21" t="s">
+        <v>75</v>
+      </c>
       <c r="CH21" s="21"/>
       <c r="CI21" s="21"/>
       <c r="CJ21" s="21"/>
@@ -3592,7 +3657,7 @@
       <c r="ED21" s="21"/>
       <c r="EE21" s="21"/>
     </row>
-    <row r="22" spans="1:135" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:135" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B22" s="12" t="s">
         <v>34</v>
       </c>
@@ -3730,7 +3795,7 @@
       <c r="ED22" s="21"/>
       <c r="EE22" s="21"/>
     </row>
-    <row r="23" spans="1:135" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:135" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B23" s="11" t="s">
         <v>35</v>
       </c>
@@ -3796,7 +3861,9 @@
       <c r="BJ23" s="21"/>
       <c r="BK23" s="21"/>
       <c r="BL23" s="21"/>
-      <c r="BM23" s="21"/>
+      <c r="BM23" s="21" t="s">
+        <v>87</v>
+      </c>
       <c r="BN23" s="21"/>
       <c r="BO23" s="21"/>
       <c r="BP23" s="21"/>
@@ -3868,9 +3935,9 @@
       <c r="ED23" s="21"/>
       <c r="EE23" s="21"/>
     </row>
-    <row r="24" spans="1:135" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:135" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B24" s="11" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C24" s="21"/>
       <c r="D24" s="21"/>
@@ -3943,7 +4010,9 @@
       <c r="BS24" s="21"/>
       <c r="BT24" s="21"/>
       <c r="BU24" s="21"/>
-      <c r="BV24" s="21"/>
+      <c r="BV24" s="21" t="s">
+        <v>87</v>
+      </c>
       <c r="BW24" s="21"/>
       <c r="BX24" s="21"/>
       <c r="BY24" s="21"/>
@@ -4006,9 +4075,9 @@
       <c r="ED24" s="21"/>
       <c r="EE24" s="21"/>
     </row>
-    <row r="25" spans="1:135" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:135" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B25" s="11" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C25" s="21"/>
       <c r="D25" s="21"/>
@@ -4092,7 +4161,9 @@
       <c r="CD25" s="21"/>
       <c r="CE25" s="21"/>
       <c r="CF25" s="21"/>
-      <c r="CG25" s="21"/>
+      <c r="CG25" s="21" t="s">
+        <v>87</v>
+      </c>
       <c r="CH25" s="21"/>
       <c r="CI25" s="21"/>
       <c r="CJ25" s="21"/>
@@ -4144,9 +4215,9 @@
       <c r="ED25" s="21"/>
       <c r="EE25" s="21"/>
     </row>
-    <row r="26" spans="1:135" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:135" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B26" s="13" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C26" s="21"/>
       <c r="D26" s="21"/>
@@ -4282,9 +4353,9 @@
       <c r="ED26" s="21"/>
       <c r="EE26" s="21"/>
     </row>
-    <row r="27" spans="1:135" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:135" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B27" s="14" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C27" s="21"/>
       <c r="D27" s="21"/>
@@ -4381,7 +4452,9 @@
       <c r="CQ27" s="21"/>
       <c r="CR27" s="21"/>
       <c r="CS27" s="21"/>
-      <c r="CT27" s="21"/>
+      <c r="CT27" s="21" t="s">
+        <v>87</v>
+      </c>
       <c r="CU27" s="21"/>
       <c r="CV27" s="21"/>
       <c r="CW27" s="21"/>
@@ -4420,9 +4493,9 @@
       <c r="ED27" s="21"/>
       <c r="EE27" s="21"/>
     </row>
-    <row r="28" spans="1:135" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:135" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B28" s="14" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C28" s="21"/>
       <c r="D28" s="21"/>
@@ -4526,7 +4599,9 @@
       <c r="CX28" s="21"/>
       <c r="CY28" s="21"/>
       <c r="CZ28" s="21"/>
-      <c r="DA28" s="21"/>
+      <c r="DA28" s="21" t="s">
+        <v>87</v>
+      </c>
       <c r="DB28" s="21"/>
       <c r="DC28" s="21"/>
       <c r="DD28" s="21"/>
@@ -4558,9 +4633,9 @@
       <c r="ED28" s="21"/>
       <c r="EE28" s="21"/>
     </row>
-    <row r="29" spans="1:135" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:135" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="13" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="C29" s="21"/>
       <c r="D29" s="21"/>
@@ -4697,7 +4772,9 @@
       <c r="EE29" s="21"/>
     </row>
     <row r="30" spans="1:135" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="14"/>
+      <c r="B30" s="71" t="s">
+        <v>77</v>
+      </c>
       <c r="C30" s="21"/>
       <c r="D30" s="21"/>
       <c r="E30" s="21"/>
@@ -4789,7 +4866,9 @@
       <c r="CM30" s="21"/>
       <c r="CN30" s="21"/>
       <c r="CO30" s="21"/>
-      <c r="CP30" s="21"/>
+      <c r="CP30" s="21" t="s">
+        <v>87</v>
+      </c>
       <c r="CQ30" s="21"/>
       <c r="CR30" s="21"/>
       <c r="CS30" s="21"/>
@@ -4833,7 +4912,9 @@
       <c r="EE30" s="21"/>
     </row>
     <row r="31" spans="1:135" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="14"/>
+      <c r="B31" s="71" t="s">
+        <v>78</v>
+      </c>
       <c r="C31" s="21"/>
       <c r="D31" s="21"/>
       <c r="E31" s="21"/>
@@ -4932,7 +5013,9 @@
       <c r="CT31" s="21"/>
       <c r="CU31" s="21"/>
       <c r="CV31" s="21"/>
-      <c r="CW31" s="21"/>
+      <c r="CW31" s="21" t="s">
+        <v>87</v>
+      </c>
       <c r="CX31" s="21"/>
       <c r="CY31" s="21"/>
       <c r="CZ31" s="21"/>
@@ -4968,7 +5051,7 @@
       <c r="ED31" s="21"/>
       <c r="EE31" s="21"/>
     </row>
-    <row r="32" spans="1:135" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:135" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B32" s="14"/>
       <c r="C32" s="21"/>
       <c r="D32" s="21"/>
@@ -5104,9 +5187,9 @@
       <c r="ED32" s="21"/>
       <c r="EE32" s="21"/>
     </row>
-    <row r="33" spans="2:135" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:135" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B33" s="13" t="s">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="C33" s="21"/>
       <c r="D33" s="21"/>
@@ -5243,7 +5326,9 @@
       <c r="EE33" s="21"/>
     </row>
     <row r="34" spans="2:135" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="14"/>
+      <c r="B34" s="72" t="s">
+        <v>79</v>
+      </c>
       <c r="C34" s="21"/>
       <c r="D34" s="21"/>
       <c r="E34" s="21"/>
@@ -5335,7 +5420,9 @@
       <c r="CM34" s="21"/>
       <c r="CN34" s="21"/>
       <c r="CO34" s="21"/>
-      <c r="CP34" s="21"/>
+      <c r="CP34" s="21" t="s">
+        <v>87</v>
+      </c>
       <c r="CQ34" s="21"/>
       <c r="CR34" s="21"/>
       <c r="CS34" s="21"/>
@@ -5379,7 +5466,9 @@
       <c r="EE34" s="21"/>
     </row>
     <row r="35" spans="2:135" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="14"/>
+      <c r="B35" s="71" t="s">
+        <v>80</v>
+      </c>
       <c r="C35" s="21"/>
       <c r="D35" s="21"/>
       <c r="E35" s="21"/>
@@ -5482,7 +5571,9 @@
       <c r="CX35" s="21"/>
       <c r="CY35" s="21"/>
       <c r="CZ35" s="21"/>
-      <c r="DA35" s="21"/>
+      <c r="DA35" s="21" t="s">
+        <v>87</v>
+      </c>
       <c r="DB35" s="21"/>
       <c r="DC35" s="21"/>
       <c r="DD35" s="21"/>
@@ -5514,9 +5605,9 @@
       <c r="ED35" s="21"/>
       <c r="EE35" s="21"/>
     </row>
-    <row r="36" spans="2:135" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:135" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B36" s="13" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="C36" s="21"/>
       <c r="D36" s="21"/>
@@ -5653,8 +5744,8 @@
       <c r="EE36" s="21"/>
     </row>
     <row r="37" spans="2:135" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="14" t="s">
-        <v>36</v>
+      <c r="B37" s="73" t="s">
+        <v>83</v>
       </c>
       <c r="C37" s="21"/>
       <c r="D37" s="21"/>
@@ -5766,7 +5857,9 @@
       <c r="DF37" s="21"/>
       <c r="DG37" s="21"/>
       <c r="DH37" s="21"/>
-      <c r="DI37" s="21"/>
+      <c r="DI37" s="21" t="s">
+        <v>87</v>
+      </c>
       <c r="DJ37" s="21"/>
       <c r="DK37" s="21"/>
       <c r="DL37" s="21"/>
@@ -5791,9 +5884,6 @@
       <c r="EE37" s="21"/>
     </row>
     <row r="38" spans="2:135" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="14" t="s">
-        <v>37</v>
-      </c>
       <c r="C38" s="21"/>
       <c r="D38" s="21"/>
       <c r="E38" s="21"/>
@@ -5928,8 +6018,10 @@
       <c r="ED38" s="21"/>
       <c r="EE38" s="21"/>
     </row>
-    <row r="39" spans="2:135" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="14"/>
+    <row r="39" spans="2:135" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B39" s="13" t="s">
+        <v>67</v>
+      </c>
       <c r="C39" s="21"/>
       <c r="D39" s="21"/>
       <c r="E39" s="21"/>
@@ -6064,8 +6156,10 @@
       <c r="ED39" s="21"/>
       <c r="EE39" s="21"/>
     </row>
-    <row r="40" spans="2:135" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="14"/>
+    <row r="40" spans="2:135" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B40" s="14" t="s">
+        <v>36</v>
+      </c>
       <c r="C40" s="21"/>
       <c r="D40" s="21"/>
       <c r="E40" s="21"/>
@@ -6176,7 +6270,9 @@
       <c r="DF40" s="21"/>
       <c r="DG40" s="21"/>
       <c r="DH40" s="21"/>
-      <c r="DI40" s="21"/>
+      <c r="DI40" s="21" t="s">
+        <v>87</v>
+      </c>
       <c r="DJ40" s="21"/>
       <c r="DK40" s="21"/>
       <c r="DL40" s="21"/>
@@ -6200,9 +6296,9 @@
       <c r="ED40" s="21"/>
       <c r="EE40" s="21"/>
     </row>
-    <row r="41" spans="2:135" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="13" t="s">
-        <v>61</v>
+    <row r="41" spans="2:135" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B41" s="14" t="s">
+        <v>37</v>
       </c>
       <c r="C41" s="21"/>
       <c r="D41" s="21"/>
@@ -6320,7 +6416,9 @@
       <c r="DL41" s="21"/>
       <c r="DM41" s="21"/>
       <c r="DN41" s="21"/>
-      <c r="DO41" s="21"/>
+      <c r="DO41" s="21" t="s">
+        <v>87</v>
+      </c>
       <c r="DP41" s="21"/>
       <c r="DQ41" s="21"/>
       <c r="DR41" s="21"/>
@@ -6338,10 +6436,8 @@
       <c r="ED41" s="21"/>
       <c r="EE41" s="21"/>
     </row>
-    <row r="42" spans="2:135" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="14" t="s">
-        <v>62</v>
-      </c>
+    <row r="42" spans="2:135" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B42" s="14"/>
       <c r="C42" s="21"/>
       <c r="D42" s="21"/>
       <c r="E42" s="21"/>
@@ -6462,7 +6558,9 @@
       <c r="DP42" s="21"/>
       <c r="DQ42" s="21"/>
       <c r="DR42" s="21"/>
-      <c r="DS42" s="21"/>
+      <c r="DS42" s="21" t="s">
+        <v>87</v>
+      </c>
       <c r="DT42" s="21"/>
       <c r="DU42" s="21"/>
       <c r="DV42" s="21"/>
@@ -6476,10 +6574,8 @@
       <c r="ED42" s="21"/>
       <c r="EE42" s="21"/>
     </row>
-    <row r="43" spans="2:135" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="14" t="s">
-        <v>62</v>
-      </c>
+    <row r="43" spans="2:135" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B43" s="14"/>
       <c r="C43" s="21"/>
       <c r="D43" s="21"/>
       <c r="E43" s="21"/>
@@ -6606,7 +6702,9 @@
       <c r="DV43" s="21"/>
       <c r="DW43" s="21"/>
       <c r="DX43" s="21"/>
-      <c r="DY43" s="21"/>
+      <c r="DY43" s="21" t="s">
+        <v>87</v>
+      </c>
       <c r="DZ43" s="21"/>
       <c r="EA43" s="21"/>
       <c r="EB43" s="21"/>
@@ -6614,9 +6712,9 @@
       <c r="ED43" s="21"/>
       <c r="EE43" s="21"/>
     </row>
-    <row r="44" spans="2:135" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="14" t="s">
-        <v>62</v>
+    <row r="44" spans="2:135" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B44" s="13" t="s">
+        <v>59</v>
       </c>
       <c r="C44" s="21"/>
       <c r="D44" s="21"/>
@@ -6753,8 +6851,8 @@
       <c r="EE44" s="21"/>
     </row>
     <row r="45" spans="2:135" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="14" t="s">
-        <v>62</v>
+      <c r="B45" s="71" t="s">
+        <v>84</v>
       </c>
       <c r="C45" s="21"/>
       <c r="D45" s="21"/>
@@ -6891,8 +6989,8 @@
       <c r="EE45" s="21"/>
     </row>
     <row r="46" spans="2:135" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="14" t="s">
-        <v>62</v>
+      <c r="B46" s="71" t="s">
+        <v>85</v>
       </c>
       <c r="C46" s="21"/>
       <c r="D46" s="21"/>
@@ -7029,8 +7127,8 @@
       <c r="EE46" s="21"/>
     </row>
     <row r="47" spans="2:135" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="12" t="s">
-        <v>38</v>
+      <c r="B47" s="71" t="s">
+        <v>86</v>
       </c>
       <c r="C47" s="21"/>
       <c r="D47" s="21"/>
@@ -7166,10 +7264,8 @@
       <c r="ED47" s="21"/>
       <c r="EE47" s="21"/>
     </row>
-    <row r="48" spans="2:135" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="15" t="s">
-        <v>39</v>
-      </c>
+    <row r="48" spans="2:135" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B48" s="14"/>
       <c r="C48" s="21"/>
       <c r="D48" s="21"/>
       <c r="E48" s="21"/>
@@ -7304,10 +7400,8 @@
       <c r="ED48" s="21"/>
       <c r="EE48" s="21"/>
     </row>
-    <row r="49" spans="2:135" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="15" t="s">
-        <v>40</v>
-      </c>
+    <row r="49" spans="2:135" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B49" s="14"/>
       <c r="C49" s="21"/>
       <c r="D49" s="21"/>
       <c r="E49" s="21"/>
@@ -7442,9 +7536,9 @@
       <c r="ED49" s="21"/>
       <c r="EE49" s="21"/>
     </row>
-    <row r="50" spans="2:135" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="15" t="s">
-        <v>41</v>
+    <row r="50" spans="2:135" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B50" s="12" t="s">
+        <v>38</v>
       </c>
       <c r="C50" s="21"/>
       <c r="D50" s="21"/>
@@ -7580,8 +7674,10 @@
       <c r="ED50" s="21"/>
       <c r="EE50" s="21"/>
     </row>
-    <row r="51" spans="2:135" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="15"/>
+    <row r="51" spans="2:135" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B51" s="15" t="s">
+        <v>39</v>
+      </c>
       <c r="C51" s="21"/>
       <c r="D51" s="21"/>
       <c r="E51" s="21"/>
@@ -7693,7 +7789,9 @@
       <c r="DG51" s="21"/>
       <c r="DH51" s="21"/>
       <c r="DI51" s="21"/>
-      <c r="DJ51" s="21"/>
+      <c r="DJ51" s="21" t="s">
+        <v>87</v>
+      </c>
       <c r="DK51" s="21"/>
       <c r="DL51" s="21"/>
       <c r="DM51" s="21"/>
@@ -7716,8 +7814,10 @@
       <c r="ED51" s="21"/>
       <c r="EE51" s="21"/>
     </row>
-    <row r="52" spans="2:135" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="11"/>
+    <row r="52" spans="2:135" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B52" s="15" t="s">
+        <v>40</v>
+      </c>
       <c r="C52" s="21"/>
       <c r="D52" s="21"/>
       <c r="E52" s="21"/>
@@ -7836,7 +7936,9 @@
       <c r="DN52" s="21"/>
       <c r="DO52" s="21"/>
       <c r="DP52" s="21"/>
-      <c r="DQ52" s="21"/>
+      <c r="DQ52" s="21" t="s">
+        <v>87</v>
+      </c>
       <c r="DR52" s="21"/>
       <c r="DS52" s="21"/>
       <c r="DT52" s="21"/>
@@ -7852,9 +7954,9 @@
       <c r="ED52" s="21"/>
       <c r="EE52" s="21"/>
     </row>
-    <row r="53" spans="2:135" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="12" t="s">
-        <v>42</v>
+    <row r="53" spans="2:135" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B53" s="15" t="s">
+        <v>41</v>
       </c>
       <c r="C53" s="21"/>
       <c r="D53" s="21"/>
@@ -7980,7 +8082,9 @@
       <c r="DT53" s="21"/>
       <c r="DU53" s="21"/>
       <c r="DV53" s="21"/>
-      <c r="DW53" s="21"/>
+      <c r="DW53" s="21" t="s">
+        <v>87</v>
+      </c>
       <c r="DX53" s="21"/>
       <c r="DY53" s="21"/>
       <c r="DZ53" s="21"/>
@@ -7990,10 +8094,8 @@
       <c r="ED53" s="21"/>
       <c r="EE53" s="21"/>
     </row>
-    <row r="54" spans="2:135" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="15" t="s">
-        <v>43</v>
-      </c>
+    <row r="54" spans="2:135" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B54" s="15"/>
       <c r="C54" s="21"/>
       <c r="D54" s="21"/>
       <c r="E54" s="21"/>
@@ -8128,10 +8230,8 @@
       <c r="ED54" s="21"/>
       <c r="EE54" s="21"/>
     </row>
-    <row r="55" spans="2:135" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="15" t="s">
-        <v>71</v>
-      </c>
+    <row r="55" spans="2:135" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B55" s="11"/>
       <c r="C55" s="21"/>
       <c r="D55" s="21"/>
       <c r="E55" s="21"/>
@@ -8266,9 +8366,9 @@
       <c r="ED55" s="21"/>
       <c r="EE55" s="21"/>
     </row>
-    <row r="56" spans="2:135" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="15" t="s">
-        <v>69</v>
+    <row r="56" spans="2:135" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B56" s="12" t="s">
+        <v>42</v>
       </c>
       <c r="C56" s="21"/>
       <c r="D56" s="21"/>
@@ -8404,9 +8504,9 @@
       <c r="ED56" s="21"/>
       <c r="EE56" s="21"/>
     </row>
-    <row r="57" spans="2:135" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:135" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B57" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C57" s="21"/>
       <c r="D57" s="21"/>
@@ -8532,7 +8632,9 @@
       <c r="DT57" s="21"/>
       <c r="DU57" s="21"/>
       <c r="DV57" s="21"/>
-      <c r="DW57" s="21"/>
+      <c r="DW57" s="21" t="s">
+        <v>87</v>
+      </c>
       <c r="DX57" s="21"/>
       <c r="DY57" s="21"/>
       <c r="DZ57" s="21"/>
@@ -8542,8 +8644,10 @@
       <c r="ED57" s="21"/>
       <c r="EE57" s="21"/>
     </row>
-    <row r="58" spans="2:135" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="15"/>
+    <row r="58" spans="2:135" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B58" s="15" t="s">
+        <v>68</v>
+      </c>
       <c r="C58" s="21"/>
       <c r="D58" s="21"/>
       <c r="E58" s="21"/>
@@ -8669,7 +8773,9 @@
       <c r="DU58" s="21"/>
       <c r="DV58" s="21"/>
       <c r="DW58" s="21"/>
-      <c r="DX58" s="21"/>
+      <c r="DX58" s="21" t="s">
+        <v>87</v>
+      </c>
       <c r="DY58" s="21"/>
       <c r="DZ58" s="21"/>
       <c r="EA58" s="21"/>
@@ -8678,9 +8784,9 @@
       <c r="ED58" s="21"/>
       <c r="EE58" s="21"/>
     </row>
-    <row r="59" spans="2:135" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="26" t="s">
-        <v>68</v>
+    <row r="59" spans="2:135" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B59" s="15" t="s">
+        <v>66</v>
       </c>
       <c r="C59" s="21"/>
       <c r="D59" s="21"/>
@@ -8801,7 +8907,9 @@
       <c r="DO59" s="21"/>
       <c r="DP59" s="21"/>
       <c r="DQ59" s="21"/>
-      <c r="DR59" s="21"/>
+      <c r="DR59" s="21" t="s">
+        <v>87</v>
+      </c>
       <c r="DS59" s="21"/>
       <c r="DT59" s="21"/>
       <c r="DU59" s="21"/>
@@ -8812,1259 +8920,1656 @@
       <c r="DZ59" s="21"/>
       <c r="EA59" s="21"/>
       <c r="EB59" s="21"/>
-      <c r="EC59" s="27" t="s">
-        <v>58</v>
-      </c>
+      <c r="EC59" s="27"/>
       <c r="ED59" s="21"/>
       <c r="EE59" s="21"/>
     </row>
-    <row r="60" spans="2:135" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="EC60" s="28"/>
-    </row>
-    <row r="61" spans="2:135" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="EC61" s="28"/>
-    </row>
-    <row r="62" spans="2:135" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="30" t="s">
-        <v>59</v>
-      </c>
-      <c r="C62" s="58" t="s">
+    <row r="60" spans="2:135" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B60" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C60" s="21"/>
+      <c r="D60" s="21"/>
+      <c r="E60" s="21"/>
+      <c r="F60" s="21"/>
+      <c r="G60" s="21"/>
+      <c r="H60" s="21"/>
+      <c r="I60" s="21"/>
+      <c r="J60" s="21"/>
+      <c r="K60" s="21"/>
+      <c r="L60" s="21"/>
+      <c r="M60" s="21"/>
+      <c r="N60" s="21"/>
+      <c r="O60" s="21"/>
+      <c r="P60" s="21"/>
+      <c r="Q60" s="21"/>
+      <c r="R60" s="21"/>
+      <c r="S60" s="21"/>
+      <c r="T60" s="21"/>
+      <c r="U60" s="21"/>
+      <c r="V60" s="21"/>
+      <c r="W60" s="21"/>
+      <c r="X60" s="21"/>
+      <c r="Y60" s="21"/>
+      <c r="Z60" s="21"/>
+      <c r="AA60" s="21"/>
+      <c r="AB60" s="21"/>
+      <c r="AC60" s="21"/>
+      <c r="AD60" s="21"/>
+      <c r="AE60" s="21"/>
+      <c r="AF60" s="21"/>
+      <c r="AG60" s="21"/>
+      <c r="AH60" s="21"/>
+      <c r="AI60" s="21"/>
+      <c r="AJ60" s="21"/>
+      <c r="AK60" s="21"/>
+      <c r="AL60" s="21"/>
+      <c r="AM60" s="21"/>
+      <c r="AN60" s="21"/>
+      <c r="AO60" s="21"/>
+      <c r="AP60" s="21"/>
+      <c r="AQ60" s="21"/>
+      <c r="AR60" s="21"/>
+      <c r="AS60" s="21"/>
+      <c r="AT60" s="21"/>
+      <c r="AU60" s="21"/>
+      <c r="AV60" s="21"/>
+      <c r="AW60" s="21"/>
+      <c r="AX60" s="21"/>
+      <c r="AY60" s="21"/>
+      <c r="AZ60" s="21"/>
+      <c r="BA60" s="21"/>
+      <c r="BB60" s="21"/>
+      <c r="BC60" s="21"/>
+      <c r="BD60" s="21"/>
+      <c r="BE60" s="21"/>
+      <c r="BF60" s="21"/>
+      <c r="BG60" s="21"/>
+      <c r="BH60" s="21"/>
+      <c r="BI60" s="21"/>
+      <c r="BJ60" s="21"/>
+      <c r="BK60" s="21"/>
+      <c r="BL60" s="21"/>
+      <c r="BM60" s="21"/>
+      <c r="BN60" s="21"/>
+      <c r="BO60" s="21"/>
+      <c r="BP60" s="21"/>
+      <c r="BQ60" s="21"/>
+      <c r="BR60" s="21"/>
+      <c r="BS60" s="21"/>
+      <c r="BT60" s="21"/>
+      <c r="BU60" s="21"/>
+      <c r="BV60" s="21"/>
+      <c r="BW60" s="21"/>
+      <c r="BX60" s="21"/>
+      <c r="BY60" s="21"/>
+      <c r="BZ60" s="21"/>
+      <c r="CA60" s="21"/>
+      <c r="CB60" s="21"/>
+      <c r="CC60" s="21"/>
+      <c r="CD60" s="21"/>
+      <c r="CE60" s="21"/>
+      <c r="CF60" s="21"/>
+      <c r="CG60" s="21"/>
+      <c r="CH60" s="21"/>
+      <c r="CI60" s="21"/>
+      <c r="CJ60" s="21"/>
+      <c r="CK60" s="21"/>
+      <c r="CL60" s="21"/>
+      <c r="CM60" s="21"/>
+      <c r="CN60" s="21"/>
+      <c r="CO60" s="21"/>
+      <c r="CP60" s="21"/>
+      <c r="CQ60" s="21"/>
+      <c r="CR60" s="21"/>
+      <c r="CS60" s="21"/>
+      <c r="CT60" s="21"/>
+      <c r="CU60" s="21"/>
+      <c r="CV60" s="21"/>
+      <c r="CW60" s="21"/>
+      <c r="CX60" s="21"/>
+      <c r="CY60" s="21"/>
+      <c r="CZ60" s="21"/>
+      <c r="DA60" s="21"/>
+      <c r="DB60" s="21"/>
+      <c r="DC60" s="21"/>
+      <c r="DD60" s="21"/>
+      <c r="DE60" s="21"/>
+      <c r="DF60" s="21"/>
+      <c r="DG60" s="21"/>
+      <c r="DH60" s="21"/>
+      <c r="DI60" s="21"/>
+      <c r="DJ60" s="21"/>
+      <c r="DK60" s="21"/>
+      <c r="DL60" s="21"/>
+      <c r="DM60" s="21"/>
+      <c r="DN60" s="21"/>
+      <c r="DO60" s="21"/>
+      <c r="DP60" s="21"/>
+      <c r="DQ60" s="21"/>
+      <c r="DR60" s="21"/>
+      <c r="DS60" s="21"/>
+      <c r="DT60" s="21"/>
+      <c r="DU60" s="21"/>
+      <c r="DV60" s="21"/>
+      <c r="DW60" s="21"/>
+      <c r="DX60" s="21"/>
+      <c r="DY60" s="21"/>
+      <c r="DZ60" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="EA60" s="21"/>
+      <c r="EB60" s="21"/>
+      <c r="EC60" s="27"/>
+      <c r="ED60" s="21"/>
+      <c r="EE60" s="21"/>
+    </row>
+    <row r="61" spans="2:135" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B61" s="15"/>
+      <c r="C61" s="21"/>
+      <c r="D61" s="21"/>
+      <c r="E61" s="21"/>
+      <c r="F61" s="21"/>
+      <c r="G61" s="21"/>
+      <c r="H61" s="21"/>
+      <c r="I61" s="21"/>
+      <c r="J61" s="21"/>
+      <c r="K61" s="21"/>
+      <c r="L61" s="21"/>
+      <c r="M61" s="21"/>
+      <c r="N61" s="21"/>
+      <c r="O61" s="21"/>
+      <c r="P61" s="21"/>
+      <c r="Q61" s="21"/>
+      <c r="R61" s="21"/>
+      <c r="S61" s="21"/>
+      <c r="T61" s="21"/>
+      <c r="U61" s="21"/>
+      <c r="V61" s="21"/>
+      <c r="W61" s="21"/>
+      <c r="X61" s="21"/>
+      <c r="Y61" s="21"/>
+      <c r="Z61" s="21"/>
+      <c r="AA61" s="21"/>
+      <c r="AB61" s="21"/>
+      <c r="AC61" s="21"/>
+      <c r="AD61" s="21"/>
+      <c r="AE61" s="21"/>
+      <c r="AF61" s="21"/>
+      <c r="AG61" s="21"/>
+      <c r="AH61" s="21"/>
+      <c r="AI61" s="21"/>
+      <c r="AJ61" s="21"/>
+      <c r="AK61" s="21"/>
+      <c r="AL61" s="21"/>
+      <c r="AM61" s="21"/>
+      <c r="AN61" s="21"/>
+      <c r="AO61" s="21"/>
+      <c r="AP61" s="21"/>
+      <c r="AQ61" s="21"/>
+      <c r="AR61" s="21"/>
+      <c r="AS61" s="21"/>
+      <c r="AT61" s="21"/>
+      <c r="AU61" s="21"/>
+      <c r="AV61" s="21"/>
+      <c r="AW61" s="21"/>
+      <c r="AX61" s="21"/>
+      <c r="AY61" s="21"/>
+      <c r="AZ61" s="21"/>
+      <c r="BA61" s="21"/>
+      <c r="BB61" s="21"/>
+      <c r="BC61" s="21"/>
+      <c r="BD61" s="21"/>
+      <c r="BE61" s="21"/>
+      <c r="BF61" s="21"/>
+      <c r="BG61" s="21"/>
+      <c r="BH61" s="21"/>
+      <c r="BI61" s="21"/>
+      <c r="BJ61" s="21"/>
+      <c r="BK61" s="21"/>
+      <c r="BL61" s="21"/>
+      <c r="BM61" s="21"/>
+      <c r="BN61" s="21"/>
+      <c r="BO61" s="21"/>
+      <c r="BP61" s="21"/>
+      <c r="BQ61" s="21"/>
+      <c r="BR61" s="21"/>
+      <c r="BS61" s="21"/>
+      <c r="BT61" s="21"/>
+      <c r="BU61" s="21"/>
+      <c r="BV61" s="21"/>
+      <c r="BW61" s="21"/>
+      <c r="BX61" s="21"/>
+      <c r="BY61" s="21"/>
+      <c r="BZ61" s="21"/>
+      <c r="CA61" s="21"/>
+      <c r="CB61" s="21"/>
+      <c r="CC61" s="21"/>
+      <c r="CD61" s="21"/>
+      <c r="CE61" s="21"/>
+      <c r="CF61" s="21"/>
+      <c r="CG61" s="21"/>
+      <c r="CH61" s="21"/>
+      <c r="CI61" s="21"/>
+      <c r="CJ61" s="21"/>
+      <c r="CK61" s="21"/>
+      <c r="CL61" s="21"/>
+      <c r="CM61" s="21"/>
+      <c r="CN61" s="21"/>
+      <c r="CO61" s="21"/>
+      <c r="CP61" s="21"/>
+      <c r="CQ61" s="21"/>
+      <c r="CR61" s="21"/>
+      <c r="CS61" s="21"/>
+      <c r="CT61" s="21"/>
+      <c r="CU61" s="21"/>
+      <c r="CV61" s="21"/>
+      <c r="CW61" s="21"/>
+      <c r="CX61" s="21"/>
+      <c r="CY61" s="21"/>
+      <c r="CZ61" s="21"/>
+      <c r="DA61" s="21"/>
+      <c r="DB61" s="21"/>
+      <c r="DC61" s="21"/>
+      <c r="DD61" s="21"/>
+      <c r="DE61" s="21"/>
+      <c r="DF61" s="21"/>
+      <c r="DG61" s="21"/>
+      <c r="DH61" s="21"/>
+      <c r="DI61" s="21"/>
+      <c r="DJ61" s="21"/>
+      <c r="DK61" s="21"/>
+      <c r="DL61" s="21"/>
+      <c r="DM61" s="21"/>
+      <c r="DN61" s="21"/>
+      <c r="DO61" s="21"/>
+      <c r="DP61" s="21"/>
+      <c r="DQ61" s="21"/>
+      <c r="DR61" s="21"/>
+      <c r="DS61" s="21"/>
+      <c r="DT61" s="21"/>
+      <c r="DU61" s="21"/>
+      <c r="DV61" s="21"/>
+      <c r="DW61" s="21"/>
+      <c r="DX61" s="21"/>
+      <c r="DY61" s="21"/>
+      <c r="DZ61" s="21"/>
+      <c r="EA61" s="21"/>
+      <c r="EB61" s="21"/>
+      <c r="EC61" s="27"/>
+      <c r="ED61" s="21"/>
+      <c r="EE61" s="21"/>
+    </row>
+    <row r="62" spans="2:135" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B62" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="C62" s="21"/>
+      <c r="D62" s="21"/>
+      <c r="E62" s="21"/>
+      <c r="F62" s="21"/>
+      <c r="G62" s="21"/>
+      <c r="H62" s="21"/>
+      <c r="I62" s="21"/>
+      <c r="J62" s="21"/>
+      <c r="K62" s="21"/>
+      <c r="L62" s="21"/>
+      <c r="M62" s="21"/>
+      <c r="N62" s="21"/>
+      <c r="O62" s="21"/>
+      <c r="P62" s="21"/>
+      <c r="Q62" s="21"/>
+      <c r="R62" s="21"/>
+      <c r="S62" s="21"/>
+      <c r="T62" s="21"/>
+      <c r="U62" s="21"/>
+      <c r="V62" s="21"/>
+      <c r="W62" s="21"/>
+      <c r="X62" s="21"/>
+      <c r="Y62" s="21"/>
+      <c r="Z62" s="21"/>
+      <c r="AA62" s="21"/>
+      <c r="AB62" s="21"/>
+      <c r="AC62" s="21"/>
+      <c r="AD62" s="21"/>
+      <c r="AE62" s="21"/>
+      <c r="AF62" s="21"/>
+      <c r="AG62" s="21"/>
+      <c r="AH62" s="21"/>
+      <c r="AI62" s="21"/>
+      <c r="AJ62" s="21"/>
+      <c r="AK62" s="21"/>
+      <c r="AL62" s="21"/>
+      <c r="AM62" s="21"/>
+      <c r="AN62" s="21"/>
+      <c r="AO62" s="21"/>
+      <c r="AP62" s="21"/>
+      <c r="AQ62" s="21"/>
+      <c r="AR62" s="21"/>
+      <c r="AS62" s="21"/>
+      <c r="AT62" s="21"/>
+      <c r="AU62" s="21"/>
+      <c r="AV62" s="21"/>
+      <c r="AW62" s="21"/>
+      <c r="AX62" s="21"/>
+      <c r="AY62" s="21"/>
+      <c r="AZ62" s="21"/>
+      <c r="BA62" s="21"/>
+      <c r="BB62" s="21"/>
+      <c r="BC62" s="21"/>
+      <c r="BD62" s="21"/>
+      <c r="BE62" s="21"/>
+      <c r="BF62" s="21"/>
+      <c r="BG62" s="21"/>
+      <c r="BH62" s="21"/>
+      <c r="BI62" s="21"/>
+      <c r="BJ62" s="21"/>
+      <c r="BK62" s="21"/>
+      <c r="BL62" s="21"/>
+      <c r="BM62" s="21"/>
+      <c r="BN62" s="21"/>
+      <c r="BO62" s="21"/>
+      <c r="BP62" s="21"/>
+      <c r="BQ62" s="21"/>
+      <c r="BR62" s="21"/>
+      <c r="BS62" s="21"/>
+      <c r="BT62" s="21"/>
+      <c r="BU62" s="21"/>
+      <c r="BV62" s="21"/>
+      <c r="BW62" s="21"/>
+      <c r="BX62" s="21"/>
+      <c r="BY62" s="21"/>
+      <c r="BZ62" s="21"/>
+      <c r="CA62" s="21"/>
+      <c r="CB62" s="21"/>
+      <c r="CC62" s="21"/>
+      <c r="CD62" s="21"/>
+      <c r="CE62" s="21"/>
+      <c r="CF62" s="21"/>
+      <c r="CG62" s="21"/>
+      <c r="CH62" s="21"/>
+      <c r="CI62" s="21"/>
+      <c r="CJ62" s="21"/>
+      <c r="CK62" s="21"/>
+      <c r="CL62" s="21"/>
+      <c r="CM62" s="21"/>
+      <c r="CN62" s="21"/>
+      <c r="CO62" s="21"/>
+      <c r="CP62" s="21"/>
+      <c r="CQ62" s="21"/>
+      <c r="CR62" s="21"/>
+      <c r="CS62" s="21"/>
+      <c r="CT62" s="21"/>
+      <c r="CU62" s="21"/>
+      <c r="CV62" s="21"/>
+      <c r="CW62" s="21"/>
+      <c r="CX62" s="21"/>
+      <c r="CY62" s="21"/>
+      <c r="CZ62" s="21"/>
+      <c r="DA62" s="21"/>
+      <c r="DB62" s="21"/>
+      <c r="DC62" s="21"/>
+      <c r="DD62" s="21"/>
+      <c r="DE62" s="21"/>
+      <c r="DF62" s="21"/>
+      <c r="DG62" s="21"/>
+      <c r="DH62" s="21"/>
+      <c r="DI62" s="21"/>
+      <c r="DJ62" s="21"/>
+      <c r="DK62" s="21"/>
+      <c r="DL62" s="21"/>
+      <c r="DM62" s="21"/>
+      <c r="DN62" s="21"/>
+      <c r="DO62" s="21"/>
+      <c r="DP62" s="21"/>
+      <c r="DQ62" s="21"/>
+      <c r="DR62" s="21"/>
+      <c r="DS62" s="21"/>
+      <c r="DT62" s="21"/>
+      <c r="DU62" s="21"/>
+      <c r="DV62" s="21"/>
+      <c r="DW62" s="21"/>
+      <c r="DX62" s="21"/>
+      <c r="DY62" s="21"/>
+      <c r="DZ62" s="21"/>
+      <c r="EA62" s="21"/>
+      <c r="EB62" s="21"/>
+      <c r="EC62" s="27"/>
+      <c r="ED62" s="21"/>
+      <c r="EE62" s="21" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="63" spans="2:135" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="EC63" s="28"/>
+    </row>
+    <row r="64" spans="2:135" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="EC64" s="28"/>
+    </row>
+    <row r="65" spans="2:133" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B65" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="C65" s="43" t="s">
         <v>51</v>
       </c>
-      <c r="D62" s="58"/>
-      <c r="E62" s="58"/>
-      <c r="F62" s="58"/>
-      <c r="G62" s="58"/>
-      <c r="H62" s="58"/>
-      <c r="I62" s="58"/>
-      <c r="J62" s="58" t="s">
+      <c r="D65" s="43"/>
+      <c r="E65" s="43"/>
+      <c r="F65" s="43"/>
+      <c r="G65" s="43"/>
+      <c r="H65" s="43"/>
+      <c r="I65" s="43"/>
+      <c r="J65" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="K62" s="58"/>
-      <c r="L62" s="58"/>
-      <c r="M62" s="58"/>
-      <c r="N62" s="58"/>
-      <c r="O62" s="58"/>
-      <c r="P62" s="58"/>
-      <c r="Q62" s="58"/>
-      <c r="R62" s="58"/>
-      <c r="S62" s="58"/>
-      <c r="T62" s="58"/>
-      <c r="U62" s="58"/>
-      <c r="V62" s="31"/>
-      <c r="W62" s="31"/>
-      <c r="X62" s="31"/>
-      <c r="EC62" s="28"/>
-    </row>
-    <row r="63" spans="2:135" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B63" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="C63" s="65" t="s">
+      <c r="K65" s="43"/>
+      <c r="L65" s="43"/>
+      <c r="M65" s="43"/>
+      <c r="N65" s="43"/>
+      <c r="O65" s="43"/>
+      <c r="P65" s="43"/>
+      <c r="Q65" s="43"/>
+      <c r="R65" s="43"/>
+      <c r="S65" s="43"/>
+      <c r="T65" s="43"/>
+      <c r="U65" s="43"/>
+      <c r="V65" s="31"/>
+      <c r="W65" s="31"/>
+      <c r="X65" s="31"/>
+      <c r="EC65" s="28"/>
+    </row>
+    <row r="66" spans="2:133" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B66" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="C66" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="D63" s="65"/>
-      <c r="E63" s="65"/>
-      <c r="F63" s="65"/>
-      <c r="G63" s="65"/>
-      <c r="H63" s="65"/>
-      <c r="I63" s="65"/>
-      <c r="J63" s="59" t="s">
+      <c r="D66" s="50"/>
+      <c r="E66" s="50"/>
+      <c r="F66" s="50"/>
+      <c r="G66" s="50"/>
+      <c r="H66" s="50"/>
+      <c r="I66" s="50"/>
+      <c r="J66" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="K63" s="60"/>
-      <c r="L63" s="60"/>
-      <c r="M63" s="60"/>
-      <c r="N63" s="60"/>
-      <c r="O63" s="60"/>
-      <c r="P63" s="60"/>
-      <c r="Q63" s="60"/>
-      <c r="R63" s="60"/>
-      <c r="S63" s="60"/>
-      <c r="T63" s="60"/>
-      <c r="U63" s="61"/>
-      <c r="V63" s="32"/>
-      <c r="W63" s="32"/>
-      <c r="X63" s="32"/>
-      <c r="EC63" s="28"/>
-    </row>
-    <row r="64" spans="2:135" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B64" s="15"/>
-      <c r="C64" s="66" t="s">
-        <v>53</v>
-      </c>
-      <c r="D64" s="66"/>
-      <c r="E64" s="66"/>
-      <c r="F64" s="66"/>
-      <c r="G64" s="66"/>
-      <c r="H64" s="66"/>
-      <c r="I64" s="66"/>
-      <c r="J64" s="62" t="s">
-        <v>48</v>
-      </c>
-      <c r="K64" s="63"/>
-      <c r="L64" s="63"/>
-      <c r="M64" s="63"/>
-      <c r="N64" s="63"/>
-      <c r="O64" s="63"/>
-      <c r="P64" s="63"/>
-      <c r="Q64" s="63"/>
-      <c r="R64" s="63"/>
-      <c r="S64" s="63"/>
-      <c r="T64" s="63"/>
-      <c r="U64" s="64"/>
-      <c r="V64" s="33"/>
-      <c r="W64" s="33"/>
-      <c r="X64" s="33"/>
-      <c r="EC64" s="28"/>
-    </row>
-    <row r="65" spans="2:133" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="15"/>
-      <c r="C65" s="67" t="s">
-        <v>55</v>
-      </c>
-      <c r="D65" s="67"/>
-      <c r="E65" s="67"/>
-      <c r="F65" s="67"/>
-      <c r="G65" s="67"/>
-      <c r="H65" s="67"/>
-      <c r="I65" s="67"/>
-      <c r="J65" s="59" t="s">
-        <v>54</v>
-      </c>
-      <c r="K65" s="60"/>
-      <c r="L65" s="60"/>
-      <c r="M65" s="60"/>
-      <c r="N65" s="60"/>
-      <c r="O65" s="60"/>
-      <c r="P65" s="60"/>
-      <c r="Q65" s="60"/>
-      <c r="R65" s="60"/>
-      <c r="S65" s="60"/>
-      <c r="T65" s="60"/>
-      <c r="U65" s="61"/>
-      <c r="V65" s="32"/>
-      <c r="W65" s="32"/>
-      <c r="X65" s="32"/>
-      <c r="EC65" s="28"/>
-    </row>
-    <row r="66" spans="2:133" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B66" s="15"/>
-      <c r="C66" s="68" t="s">
-        <v>56</v>
-      </c>
-      <c r="D66" s="68"/>
-      <c r="E66" s="68"/>
-      <c r="F66" s="68"/>
-      <c r="G66" s="68"/>
-      <c r="H66" s="68"/>
-      <c r="I66" s="68"/>
-      <c r="J66" s="59" t="s">
-        <v>49</v>
-      </c>
-      <c r="K66" s="60"/>
-      <c r="L66" s="60"/>
-      <c r="M66" s="60"/>
-      <c r="N66" s="60"/>
-      <c r="O66" s="60"/>
-      <c r="P66" s="60"/>
-      <c r="Q66" s="60"/>
-      <c r="R66" s="60"/>
-      <c r="S66" s="60"/>
-      <c r="T66" s="60"/>
-      <c r="U66" s="61"/>
+      <c r="K66" s="45"/>
+      <c r="L66" s="45"/>
+      <c r="M66" s="45"/>
+      <c r="N66" s="45"/>
+      <c r="O66" s="45"/>
+      <c r="P66" s="45"/>
+      <c r="Q66" s="45"/>
+      <c r="R66" s="45"/>
+      <c r="S66" s="45"/>
+      <c r="T66" s="45"/>
+      <c r="U66" s="46"/>
       <c r="V66" s="32"/>
       <c r="W66" s="32"/>
       <c r="X66" s="32"/>
       <c r="EC66" s="28"/>
     </row>
     <row r="67" spans="2:133" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B67" s="15"/>
-      <c r="C67" s="57" t="s">
+      <c r="B67" s="74" t="s">
+        <v>89</v>
+      </c>
+      <c r="C67" s="51" t="s">
+        <v>53</v>
+      </c>
+      <c r="D67" s="51"/>
+      <c r="E67" s="51"/>
+      <c r="F67" s="51"/>
+      <c r="G67" s="51"/>
+      <c r="H67" s="51"/>
+      <c r="I67" s="51"/>
+      <c r="J67" s="47" t="s">
+        <v>48</v>
+      </c>
+      <c r="K67" s="48"/>
+      <c r="L67" s="48"/>
+      <c r="M67" s="48"/>
+      <c r="N67" s="48"/>
+      <c r="O67" s="48"/>
+      <c r="P67" s="48"/>
+      <c r="Q67" s="48"/>
+      <c r="R67" s="48"/>
+      <c r="S67" s="48"/>
+      <c r="T67" s="48"/>
+      <c r="U67" s="49"/>
+      <c r="V67" s="33"/>
+      <c r="W67" s="33"/>
+      <c r="X67" s="33"/>
+      <c r="EC67" s="28"/>
+    </row>
+    <row r="68" spans="2:133" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B68" t="s">
+        <v>90</v>
+      </c>
+      <c r="C68" s="52" t="s">
+        <v>55</v>
+      </c>
+      <c r="D68" s="52"/>
+      <c r="E68" s="52"/>
+      <c r="F68" s="52"/>
+      <c r="G68" s="52"/>
+      <c r="H68" s="52"/>
+      <c r="I68" s="52"/>
+      <c r="J68" s="44" t="s">
+        <v>54</v>
+      </c>
+      <c r="K68" s="45"/>
+      <c r="L68" s="45"/>
+      <c r="M68" s="45"/>
+      <c r="N68" s="45"/>
+      <c r="O68" s="45"/>
+      <c r="P68" s="45"/>
+      <c r="Q68" s="45"/>
+      <c r="R68" s="45"/>
+      <c r="S68" s="45"/>
+      <c r="T68" s="45"/>
+      <c r="U68" s="46"/>
+      <c r="V68" s="32"/>
+      <c r="W68" s="32"/>
+      <c r="X68" s="32"/>
+      <c r="EC68" s="28"/>
+    </row>
+    <row r="69" spans="2:133" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B69" s="74" t="s">
+        <v>91</v>
+      </c>
+      <c r="C69" s="53" t="s">
+        <v>56</v>
+      </c>
+      <c r="D69" s="53"/>
+      <c r="E69" s="53"/>
+      <c r="F69" s="53"/>
+      <c r="G69" s="53"/>
+      <c r="H69" s="53"/>
+      <c r="I69" s="53"/>
+      <c r="J69" s="44" t="s">
+        <v>49</v>
+      </c>
+      <c r="K69" s="45"/>
+      <c r="L69" s="45"/>
+      <c r="M69" s="45"/>
+      <c r="N69" s="45"/>
+      <c r="O69" s="45"/>
+      <c r="P69" s="45"/>
+      <c r="Q69" s="45"/>
+      <c r="R69" s="45"/>
+      <c r="S69" s="45"/>
+      <c r="T69" s="45"/>
+      <c r="U69" s="46"/>
+      <c r="V69" s="32"/>
+      <c r="W69" s="32"/>
+      <c r="X69" s="32"/>
+      <c r="EC69" s="28"/>
+    </row>
+    <row r="70" spans="2:133" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B70" s="74" t="s">
+        <v>92</v>
+      </c>
+      <c r="C70" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="D67" s="57"/>
-      <c r="E67" s="57"/>
-      <c r="F67" s="57"/>
-      <c r="G67" s="57"/>
-      <c r="H67" s="57"/>
-      <c r="I67" s="57"/>
-      <c r="J67" s="59" t="s">
+      <c r="D70" s="42"/>
+      <c r="E70" s="42"/>
+      <c r="F70" s="42"/>
+      <c r="G70" s="42"/>
+      <c r="H70" s="42"/>
+      <c r="I70" s="42"/>
+      <c r="J70" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="K67" s="60"/>
-      <c r="L67" s="60"/>
-      <c r="M67" s="60"/>
-      <c r="N67" s="60"/>
-      <c r="O67" s="60"/>
-      <c r="P67" s="60"/>
-      <c r="Q67" s="60"/>
-      <c r="R67" s="60"/>
-      <c r="S67" s="60"/>
-      <c r="T67" s="60"/>
-      <c r="U67" s="61"/>
-      <c r="V67" s="32"/>
-      <c r="W67" s="32"/>
-      <c r="X67" s="32"/>
-      <c r="EC67" s="28"/>
-    </row>
-    <row r="68" spans="2:133" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="EC68" s="28"/>
-    </row>
-    <row r="69" spans="2:133" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="EC69" s="28"/>
-    </row>
-    <row r="70" spans="2:133" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K70" s="45"/>
+      <c r="L70" s="45"/>
+      <c r="M70" s="45"/>
+      <c r="N70" s="45"/>
+      <c r="O70" s="45"/>
+      <c r="P70" s="45"/>
+      <c r="Q70" s="45"/>
+      <c r="R70" s="45"/>
+      <c r="S70" s="45"/>
+      <c r="T70" s="45"/>
+      <c r="U70" s="46"/>
+      <c r="V70" s="32"/>
+      <c r="W70" s="32"/>
+      <c r="X70" s="32"/>
       <c r="EC70" s="28"/>
     </row>
-    <row r="71" spans="2:133" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:133" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B71" s="74"/>
       <c r="EC71" s="28"/>
     </row>
-    <row r="72" spans="2:133" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:133" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="EC72" s="28"/>
     </row>
-    <row r="73" spans="2:133" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:133" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="EC73" s="28"/>
     </row>
-    <row r="74" spans="2:133" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:133" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="EC74" s="28"/>
     </row>
-    <row r="75" spans="2:133" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:133" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="EC75" s="28"/>
     </row>
-    <row r="76" spans="2:133" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:133" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="EC76" s="28"/>
     </row>
-    <row r="77" spans="2:133" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:133" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="EC77" s="28"/>
     </row>
-    <row r="78" spans="2:133" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:133" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="EC78" s="28"/>
     </row>
-    <row r="79" spans="2:133" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:133" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="EC79" s="28"/>
     </row>
-    <row r="80" spans="2:133" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:133" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="EC80" s="28"/>
     </row>
-    <row r="81" spans="133:133" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="133:133" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="EC81" s="28"/>
     </row>
-    <row r="82" spans="133:133" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="133:133" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="EC82" s="28"/>
     </row>
-    <row r="83" spans="133:133" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="133:133" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="EC83" s="28"/>
     </row>
-    <row r="84" spans="133:133" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="133:133" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="EC84" s="28"/>
     </row>
-    <row r="85" spans="133:133" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="133:133" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="EC85" s="28"/>
     </row>
-    <row r="86" spans="133:133" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="133:133" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="EC86" s="28"/>
     </row>
-    <row r="87" spans="133:133" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="133:133" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="EC87" s="28"/>
     </row>
-    <row r="88" spans="133:133" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="133:133" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="EC88" s="28"/>
     </row>
-    <row r="89" spans="133:133" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="133:133" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="EC89" s="28"/>
     </row>
-    <row r="90" spans="133:133" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="133:133" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="EC90" s="28"/>
     </row>
-    <row r="91" spans="133:133" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="133:133" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="EC91" s="28"/>
     </row>
-    <row r="92" spans="133:133" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="133:133" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="EC92" s="28"/>
     </row>
-    <row r="93" spans="133:133" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="133:133" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="EC93" s="28"/>
     </row>
-    <row r="94" spans="133:133" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="133:133" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="EC94" s="28"/>
     </row>
-    <row r="95" spans="133:133" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="133:133" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="EC95" s="28"/>
     </row>
-    <row r="96" spans="133:133" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="133:133" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="EC96" s="28"/>
     </row>
-    <row r="97" spans="133:133" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="133:133" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="EC97" s="28"/>
     </row>
-    <row r="98" spans="133:133" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="133:133" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="EC98" s="28"/>
     </row>
-    <row r="99" spans="133:133" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="133:133" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="EC99" s="28"/>
     </row>
-    <row r="100" spans="133:133" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="133:133" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="EC100" s="28"/>
     </row>
-    <row r="101" spans="133:133" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="133:133" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="EC101" s="28"/>
     </row>
-    <row r="102" spans="133:133" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="133:133" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="EC102" s="28"/>
     </row>
-    <row r="103" spans="133:133" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="133:133" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="EC103" s="28"/>
     </row>
-    <row r="104" spans="133:133" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="133:133" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="EC104" s="28"/>
     </row>
-    <row r="105" spans="133:133" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="133:133" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="EC105" s="28"/>
     </row>
-    <row r="106" spans="133:133" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="133:133" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="EC106" s="28"/>
     </row>
-    <row r="107" spans="133:133" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="133:133" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="EC107" s="28"/>
     </row>
-    <row r="108" spans="133:133" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="133:133" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="EC108" s="28"/>
     </row>
-    <row r="109" spans="133:133" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="133:133" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="EC109" s="28"/>
     </row>
-    <row r="110" spans="133:133" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="133:133" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="EC110" s="28"/>
     </row>
-    <row r="111" spans="133:133" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="133:133" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="EC111" s="28"/>
     </row>
-    <row r="112" spans="133:133" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="133:133" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="EC112" s="28"/>
     </row>
-    <row r="113" spans="133:133" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="133:133" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="EC113" s="28"/>
     </row>
-    <row r="114" spans="133:133" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="133:133" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="EC114" s="28"/>
     </row>
-    <row r="115" spans="133:133" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="133:133" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="EC115" s="28"/>
     </row>
-    <row r="116" spans="133:133" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="133:133" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="EC116" s="28"/>
     </row>
-    <row r="117" spans="133:133" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="133:133" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="EC117" s="28"/>
     </row>
-    <row r="118" spans="133:133" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="133:133" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="EC118" s="28"/>
     </row>
-    <row r="119" spans="133:133" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="133:133" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="EC119" s="28"/>
     </row>
-    <row r="120" spans="133:133" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="133:133" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="EC120" s="28"/>
     </row>
-    <row r="121" spans="133:133" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="133:133" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="EC121" s="28"/>
     </row>
-    <row r="122" spans="133:133" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="133:133" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="EC122" s="28"/>
     </row>
-    <row r="123" spans="133:133" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="133:133" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="EC123" s="28"/>
     </row>
-    <row r="124" spans="133:133" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="133:133" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="EC124" s="28"/>
     </row>
-    <row r="125" spans="133:133" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="133:133" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="EC125" s="28"/>
     </row>
-    <row r="126" spans="133:133" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="133:133" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="EC126" s="28"/>
     </row>
-    <row r="127" spans="133:133" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="133:133" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="EC127" s="28"/>
     </row>
-    <row r="128" spans="133:133" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="133:133" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="EC128" s="28"/>
     </row>
-    <row r="129" spans="133:133" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="133:133" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="EC129" s="28"/>
     </row>
-    <row r="130" spans="133:133" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="133:133" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="EC130" s="28"/>
     </row>
-    <row r="131" spans="133:133" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="132" spans="133:133" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="133" spans="133:133" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="134" spans="133:133" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="135" spans="133:133" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="136" spans="133:133" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="137" spans="133:133" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="138" spans="133:133" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="139" spans="133:133" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="140" spans="133:133" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="141" spans="133:133" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="142" spans="133:133" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="143" spans="133:133" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="144" spans="133:133" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="131" spans="133:133" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="EC131" s="28"/>
+    </row>
+    <row r="132" spans="133:133" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="EC132" s="28"/>
+    </row>
+    <row r="133" spans="133:133" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="EC133" s="28"/>
+    </row>
+    <row r="134" spans="133:133" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="135" spans="133:133" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="136" spans="133:133" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="137" spans="133:133" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="138" spans="133:133" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="139" spans="133:133" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="140" spans="133:133" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="141" spans="133:133" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="142" spans="133:133" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="143" spans="133:133" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="144" spans="133:133" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="DR9:DX9"/>
-    <mergeCell ref="DY9:EE9"/>
-    <mergeCell ref="CP9:CV9"/>
-    <mergeCell ref="CW9:DC9"/>
-    <mergeCell ref="DD9:DJ9"/>
-    <mergeCell ref="DK9:DQ9"/>
-    <mergeCell ref="BG9:BM9"/>
-    <mergeCell ref="BN9:BT9"/>
-    <mergeCell ref="BU9:CA9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:W9"/>
-    <mergeCell ref="X9:AD9"/>
-    <mergeCell ref="AE9:AK9"/>
-    <mergeCell ref="AL9:AR9"/>
-    <mergeCell ref="C67:I67"/>
-    <mergeCell ref="J62:U62"/>
-    <mergeCell ref="J63:U63"/>
-    <mergeCell ref="J64:U64"/>
-    <mergeCell ref="J65:U65"/>
-    <mergeCell ref="J66:U66"/>
-    <mergeCell ref="J67:U67"/>
-    <mergeCell ref="C62:I62"/>
-    <mergeCell ref="C63:I63"/>
-    <mergeCell ref="C64:I64"/>
-    <mergeCell ref="C65:I65"/>
-    <mergeCell ref="C66:I66"/>
     <mergeCell ref="DO10:EE10"/>
     <mergeCell ref="B8:B10"/>
     <mergeCell ref="B2:AD2"/>
@@ -10081,6 +10586,32 @@
     <mergeCell ref="CK10:DN10"/>
     <mergeCell ref="AS9:AY9"/>
     <mergeCell ref="AZ9:BF9"/>
+    <mergeCell ref="C70:I70"/>
+    <mergeCell ref="J65:U65"/>
+    <mergeCell ref="J66:U66"/>
+    <mergeCell ref="J67:U67"/>
+    <mergeCell ref="J68:U68"/>
+    <mergeCell ref="J69:U69"/>
+    <mergeCell ref="J70:U70"/>
+    <mergeCell ref="C65:I65"/>
+    <mergeCell ref="C66:I66"/>
+    <mergeCell ref="C67:I67"/>
+    <mergeCell ref="C68:I68"/>
+    <mergeCell ref="C69:I69"/>
+    <mergeCell ref="BG9:BM9"/>
+    <mergeCell ref="BN9:BT9"/>
+    <mergeCell ref="BU9:CA9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:W9"/>
+    <mergeCell ref="X9:AD9"/>
+    <mergeCell ref="AE9:AK9"/>
+    <mergeCell ref="AL9:AR9"/>
+    <mergeCell ref="DR9:DX9"/>
+    <mergeCell ref="DY9:EE9"/>
+    <mergeCell ref="CP9:CV9"/>
+    <mergeCell ref="CW9:DC9"/>
+    <mergeCell ref="DD9:DJ9"/>
+    <mergeCell ref="DK9:DQ9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
